--- a/data/Austerlitz_seizoen_2019-2020.xlsx
+++ b/data/Austerlitz_seizoen_2019-2020.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bas\OneDrive\pers_dev\dartsense\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{3A169B49-1567-45BD-9391-F1821F43E226}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{BE776CB7-5CDD-4B70-A225-2382785EDE56}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCA537B-AA4A-4CBB-BF11-32EA15EB114C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="43200" windowHeight="23535" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2018-08-30" sheetId="30" r:id="rId1"/>
+    <sheet name="2019-08-30" sheetId="30" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>

--- a/data/Austerlitz_seizoen_2019-2020.xlsx
+++ b/data/Austerlitz_seizoen_2019-2020.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\src\dartsense\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bas\OneDrive\pers_dev\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCA537B-AA4A-4CBB-BF11-32EA15EB114C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{ABCA537B-AA4A-4CBB-BF11-32EA15EB114C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{AA3E7B02-98A0-402D-8029-3E5582004222}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="43200" windowHeight="23535" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-08-30" sheetId="30" r:id="rId1"/>
+    <sheet name="2019-09-06" sheetId="31" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="28">
   <si>
     <t>Baan</t>
   </si>
@@ -111,6 +112,12 @@
   </si>
   <si>
     <t>bye</t>
+  </si>
+  <si>
+    <t>Christa</t>
+  </si>
+  <si>
+    <t>Andor</t>
   </si>
 </sst>
 </file>
@@ -2410,7 +2417,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2989,4 +2998,504 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AC6138-9A89-44DA-BE82-CB1DBD38A42D}">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/Austerlitz_seizoen_2019-2020.xlsx
+++ b/data/Austerlitz_seizoen_2019-2020.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bas\OneDrive\pers_dev\dartsense\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{ABCA537B-AA4A-4CBB-BF11-32EA15EB114C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{AA3E7B02-98A0-402D-8029-3E5582004222}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27505730-74EE-4EF3-894A-2311E3EA2B12}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4755" yWindow="4755" windowWidth="43200" windowHeight="23535" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-08-30" sheetId="30" r:id="rId1"/>
     <sheet name="2019-09-06" sheetId="31" r:id="rId2"/>
+    <sheet name="2019-09-15" sheetId="32" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="31">
   <si>
     <t>Baan</t>
   </si>
@@ -118,6 +119,15 @@
   </si>
   <si>
     <t>Andor</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Bert</t>
+  </si>
+  <si>
+    <t>Ernie</t>
   </si>
 </sst>
 </file>
@@ -2417,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2515,10 +2525,10 @@
         <v>18</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -3004,8 +3014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AC6138-9A89-44DA-BE82-CB1DBD38A42D}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3498,4 +3508,624 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B29D6B-4022-4DBF-BE05-27E7DF187259}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/Austerlitz_seizoen_2019-2020.xlsx
+++ b/data/Austerlitz_seizoen_2019-2020.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27505730-74EE-4EF3-894A-2311E3EA2B12}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45BB317-73B4-4DB3-917A-C4FC5A8A4FB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="4755" windowWidth="43200" windowHeight="23535" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6990" yWindow="6495" windowWidth="43200" windowHeight="23535" tabRatio="766" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-08-30" sheetId="30" r:id="rId1"/>
     <sheet name="2019-09-06" sheetId="31" r:id="rId2"/>
-    <sheet name="2019-09-15" sheetId="32" r:id="rId3"/>
+    <sheet name="2019-09-13" sheetId="32" r:id="rId3"/>
+    <sheet name="2019-09-20" sheetId="33" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="31">
   <si>
     <t>Baan</t>
   </si>
@@ -2427,7 +2428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -3515,7 +3516,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4128,4 +4129,430 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0243C60E-783F-4F12-8B24-0650673A384F}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/Austerlitz_seizoen_2019-2020.xlsx
+++ b/data/Austerlitz_seizoen_2019-2020.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45BB317-73B4-4DB3-917A-C4FC5A8A4FB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BF1267-D474-4611-A76C-EC1BC4682669}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="6495" windowWidth="43200" windowHeight="23535" tabRatio="766" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12045" yWindow="6555" windowWidth="43200" windowHeight="23535" tabRatio="766" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-08-30" sheetId="30" r:id="rId1"/>
     <sheet name="2019-09-06" sheetId="31" r:id="rId2"/>
     <sheet name="2019-09-13" sheetId="32" r:id="rId3"/>
     <sheet name="2019-09-20" sheetId="33" r:id="rId4"/>
+    <sheet name="2019-10-27" sheetId="34" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="31">
   <si>
     <t>Baan</t>
   </si>
@@ -4135,8 +4136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0243C60E-783F-4F12-8B24-0650673A384F}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F19"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4555,4 +4556,581 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA4F682-BE27-43E6-B540-E4F6FC52302E}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/Austerlitz_seizoen_2019-2020.xlsx
+++ b/data/Austerlitz_seizoen_2019-2020.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BF1267-D474-4611-A76C-EC1BC4682669}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE17AF7F-28C3-4985-8580-F512E0C82650}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12045" yWindow="6555" windowWidth="43200" windowHeight="23535" tabRatio="766" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42420" yWindow="7890" windowWidth="43200" windowHeight="23535" tabRatio="766" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-08-30" sheetId="30" r:id="rId1"/>
     <sheet name="2019-09-06" sheetId="31" r:id="rId2"/>
     <sheet name="2019-09-13" sheetId="32" r:id="rId3"/>
     <sheet name="2019-09-20" sheetId="33" r:id="rId4"/>
-    <sheet name="2019-10-27" sheetId="34" r:id="rId5"/>
+    <sheet name="2019-09-27" sheetId="34" r:id="rId5"/>
+    <sheet name="2019-10-04" sheetId="35" r:id="rId6"/>
+    <sheet name="2019-10-11" sheetId="36" r:id="rId7"/>
+    <sheet name="2019-10-18" sheetId="37" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="32">
   <si>
     <t>Baan</t>
   </si>
@@ -131,12 +134,15 @@
   <si>
     <t>Ernie</t>
   </si>
+  <si>
+    <t>Reyn</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -176,21 +182,85 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -202,8 +272,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4562,8 +4656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA4F682-BE27-43E6-B540-E4F6FC52302E}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5133,4 +5227,1538 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{760DA8BB-C366-49EB-B65A-7E3E930FE78A}">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785D4C45-0678-486C-9A44-62DEE98C1582}">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D941F6FC-86C6-43B0-B27E-ED99EDE57BFE}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Austerlitz_seizoen_2019-2020.xlsx
+++ b/data/Austerlitz_seizoen_2019-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\src\dartsense\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bas/src/dartsense/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE17AF7F-28C3-4985-8580-F512E0C82650}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7DBBF4-8C45-3742-B945-3B414BDC1B64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42420" yWindow="7890" windowWidth="43200" windowHeight="23535" tabRatio="766" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="766" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-08-30" sheetId="30" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="2019-10-04" sheetId="35" r:id="rId6"/>
     <sheet name="2019-10-11" sheetId="36" r:id="rId7"/>
     <sheet name="2019-10-18" sheetId="37" r:id="rId8"/>
+    <sheet name="2019-10-25" sheetId="38" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="32">
   <si>
     <t>Baan</t>
   </si>
@@ -142,7 +143,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -182,85 +183,21 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -272,32 +209,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2527,9 +2440,9 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2567,7 +2480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2587,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -2607,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2627,7 +2540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2647,7 +2560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2667,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2687,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2707,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2727,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2747,7 +2660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2767,7 +2680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>4</v>
       </c>
@@ -2787,7 +2700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2807,7 +2720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2830,7 +2743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2850,7 +2763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2870,7 +2783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2890,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>4</v>
       </c>
@@ -2910,7 +2823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -2930,7 +2843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -2953,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -2973,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2996,7 +2909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -3016,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>4</v>
       </c>
@@ -3036,7 +2949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -3056,7 +2969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>6</v>
       </c>
@@ -3076,7 +2989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3114,9 +3027,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3154,7 +3067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -3174,7 +3087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3194,7 +3107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3214,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -3234,7 +3147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3254,7 +3167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3274,7 +3187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3294,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>4</v>
       </c>
@@ -3314,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -3337,7 +3250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -3357,7 +3270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -3377,7 +3290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -3397,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>4</v>
       </c>
@@ -3417,7 +3330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -3437,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -3457,7 +3370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5</v>
       </c>
@@ -3477,7 +3390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3497,7 +3410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -3517,7 +3430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -3537,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3560,7 +3473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -3580,7 +3493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -3614,9 +3527,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3654,7 +3567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>5</v>
       </c>
@@ -3677,7 +3590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3697,7 +3610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3717,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3737,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3757,7 +3670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3777,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3797,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -3817,7 +3730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5</v>
       </c>
@@ -3837,7 +3750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>5</v>
       </c>
@@ -3857,7 +3770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -3877,7 +3790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -3897,7 +3810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3917,7 +3830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -3937,7 +3850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>5</v>
       </c>
@@ -3957,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5</v>
       </c>
@@ -3977,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3997,7 +3910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -4017,7 +3930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -4037,7 +3950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>5</v>
       </c>
@@ -4057,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -4077,7 +3990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -4097,7 +4010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -4117,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -4140,7 +4053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -4160,7 +4073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -4180,7 +4093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>5</v>
       </c>
@@ -4200,7 +4113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>5</v>
       </c>
@@ -4234,9 +4147,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4274,7 +4187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -4297,7 +4210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4317,7 +4230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -4337,7 +4250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -4357,7 +4270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4380,7 +4293,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4400,7 +4313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4420,7 +4333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4440,7 +4353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -4460,7 +4373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -4480,7 +4393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6</v>
       </c>
@@ -4500,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4520,7 +4433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -4540,7 +4453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -4560,7 +4473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -4583,7 +4496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -4603,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -4623,7 +4536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -4660,9 +4573,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4700,7 +4613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -4720,7 +4633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4743,7 +4656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -4763,7 +4676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4783,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4803,7 +4716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4823,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4843,7 +4756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4863,7 +4776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5</v>
       </c>
@@ -4883,7 +4796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -4903,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -4923,7 +4836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -4943,7 +4856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -4963,7 +4876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -4983,7 +4896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5003,7 +4916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -5023,7 +4936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>5</v>
       </c>
@@ -5043,7 +4956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -5063,7 +4976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -5083,7 +4996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>5</v>
       </c>
@@ -5103,7 +5016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>5</v>
       </c>
@@ -5123,7 +5036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5143,7 +5056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>3</v>
       </c>
@@ -5163,7 +5076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -5183,7 +5096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>6</v>
       </c>
@@ -5203,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>
@@ -5237,9 +5150,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5277,7 +5190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -5300,7 +5213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -5320,7 +5233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -5340,7 +5253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -5360,7 +5273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -5383,7 +5296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -5403,7 +5316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5426,7 +5339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -5446,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -5466,7 +5379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>5</v>
       </c>
@@ -5486,7 +5399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6</v>
       </c>
@@ -5512,7 +5425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -5532,7 +5445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>5</v>
       </c>
@@ -5552,7 +5465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -5572,7 +5485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -5592,7 +5505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>6</v>
       </c>
@@ -5612,7 +5525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>5</v>
       </c>
@@ -5632,7 +5545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -5652,7 +5565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -5672,7 +5585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -5692,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>5</v>
       </c>
@@ -5712,7 +5625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5742,13 +5655,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785D4C45-0678-486C-9A44-62DEE98C1582}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5786,7 +5699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>4</v>
       </c>
@@ -5806,7 +5719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>4</v>
       </c>
@@ -5826,7 +5739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -5846,7 +5759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -5866,7 +5779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -5889,7 +5802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -5909,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3</v>
       </c>
@@ -5929,7 +5842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -5949,7 +5862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -5969,7 +5882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -5989,7 +5902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -6009,7 +5922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -6032,7 +5945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -6052,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -6072,7 +5985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -6092,7 +6005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -6115,7 +6028,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -6135,7 +6048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -6155,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>3</v>
       </c>
@@ -6175,7 +6088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -6195,7 +6108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -6215,7 +6128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>6</v>
       </c>
@@ -6245,12 +6158,12 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F19"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6288,475 +6201,950 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="4">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="4">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="7">
-        <v>2</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="4">
-        <v>2</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="4">
-        <v>2</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="4">
-        <v>2</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
         <v>4</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4">
-        <v>2</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>2</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
         <v>4</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="4">
-        <v>2</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19">
         <v>5</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>4</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4">
-        <v>2</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABED2C1-8C3D-FD4C-877C-94B7B6E12027}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Austerlitz_seizoen_2019-2020.xlsx
+++ b/data/Austerlitz_seizoen_2019-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bas/src/dartsense/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7DBBF4-8C45-3742-B945-3B414BDC1B64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DB507F-8DC1-4849-8CBB-3C0AFC1C9836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="766" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13365" yWindow="4080" windowWidth="57840" windowHeight="32040" tabRatio="766" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-08-30" sheetId="30" r:id="rId1"/>
@@ -22,9 +22,10 @@
     <sheet name="2019-10-11" sheetId="36" r:id="rId7"/>
     <sheet name="2019-10-18" sheetId="37" r:id="rId8"/>
     <sheet name="2019-10-25" sheetId="38" r:id="rId9"/>
+    <sheet name="2019-11-01" sheetId="39" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="32">
   <si>
     <t>Baan</t>
   </si>
@@ -143,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -183,21 +184,67 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -209,8 +256,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2440,9 +2502,9 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2480,7 +2542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2500,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -2520,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2540,7 +2602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2560,7 +2622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2580,7 +2642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2600,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2620,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2640,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2660,7 +2722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2680,7 +2742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -2700,7 +2762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2720,7 +2782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2743,7 +2805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2763,7 +2825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2783,7 +2845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2803,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -2823,7 +2885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -2843,7 +2905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -2866,7 +2928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -2886,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2909,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -2929,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4</v>
       </c>
@@ -2949,7 +3011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -2969,7 +3031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
@@ -2989,7 +3051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3016,6 +3078,580 @@
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4D2227-90F8-411A-AE20-E1CAB5F7BDEE}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3027,9 +3663,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3067,7 +3703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -3087,7 +3723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3107,7 +3743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3127,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -3147,7 +3783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3167,7 +3803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3187,7 +3823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3207,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -3227,7 +3863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -3250,7 +3886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -3270,7 +3906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -3290,7 +3926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -3310,7 +3946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -3330,7 +3966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -3350,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -3370,7 +4006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -3390,7 +4026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3410,7 +4046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -3430,7 +4066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -3450,7 +4086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3473,7 +4109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -3493,7 +4129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -3527,9 +4163,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3567,7 +4203,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5</v>
       </c>
@@ -3590,7 +4226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3610,7 +4246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3630,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3650,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3670,7 +4306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3690,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3710,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -3730,7 +4366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -3750,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -3770,7 +4406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -3790,7 +4426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -3810,7 +4446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3830,7 +4466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -3850,7 +4486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5</v>
       </c>
@@ -3870,7 +4506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -3890,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3910,7 +4546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -3930,7 +4566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -3950,7 +4586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -3970,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -3990,7 +4626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -4010,7 +4646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -4030,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -4053,7 +4689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -4073,7 +4709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -4093,7 +4729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5</v>
       </c>
@@ -4113,7 +4749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
@@ -4147,9 +4783,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4187,7 +4823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -4210,7 +4846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4230,7 +4866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -4250,7 +4886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -4270,7 +4906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4293,7 +4929,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4313,7 +4949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4333,7 +4969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4353,7 +4989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -4373,7 +5009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -4393,7 +5029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -4413,7 +5049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4433,7 +5069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -4453,7 +5089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -4473,7 +5109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -4496,7 +5132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -4516,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -4536,7 +5172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -4573,9 +5209,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4613,7 +5249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -4633,7 +5269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4656,7 +5292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -4676,7 +5312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4696,7 +5332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4716,7 +5352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4736,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4756,7 +5392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4776,7 +5412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -4796,7 +5432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -4816,7 +5452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -4836,7 +5472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -4856,7 +5492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -4876,7 +5512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -4896,7 +5532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -4916,7 +5552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -4936,7 +5572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
@@ -4956,7 +5592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -4976,7 +5612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -4996,7 +5632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -5016,7 +5652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -5036,7 +5672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5056,7 +5692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -5076,7 +5712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -5096,7 +5732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
@@ -5116,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -5150,9 +5786,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5190,7 +5826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -5213,7 +5849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -5233,7 +5869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -5253,7 +5889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -5273,7 +5909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -5296,7 +5932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -5316,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5339,7 +5975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -5359,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -5379,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -5399,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -5425,7 +6061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -5445,7 +6081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
@@ -5465,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -5485,7 +6121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -5505,7 +6141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6</v>
       </c>
@@ -5525,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
@@ -5545,7 +6181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -5565,7 +6201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -5585,7 +6221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -5605,7 +6241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -5625,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5659,9 +6295,9 @@
       <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5699,7 +6335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
@@ -5719,7 +6355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -5739,7 +6375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -5759,7 +6395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -5779,7 +6415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -5802,7 +6438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -5822,7 +6458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -5842,7 +6478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -5862,7 +6498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -5882,7 +6518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -5902,7 +6538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -5922,7 +6558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -5945,7 +6581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -5965,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -5985,7 +6621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -6005,7 +6641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -6028,7 +6664,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -6048,7 +6684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -6068,7 +6704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -6088,7 +6724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -6108,7 +6744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -6128,7 +6764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -6161,9 +6797,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6201,7 +6837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -6221,7 +6857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -6241,7 +6877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -6261,7 +6897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -6281,7 +6917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -6301,7 +6937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -6324,7 +6960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6344,7 +6980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -6364,7 +7000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -6384,7 +7020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -6404,7 +7040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -6424,7 +7060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -6444,7 +7080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -6464,7 +7100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -6484,7 +7120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -6504,7 +7140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -6524,7 +7160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -6544,7 +7180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -6573,13 +7209,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABED2C1-8C3D-FD4C-877C-94B7B6E12027}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView zoomScale="179" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6617,7 +7253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6</v>
       </c>
@@ -6637,7 +7273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -6657,7 +7293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6677,7 +7313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6700,7 +7336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6720,7 +7356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6740,7 +7376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -6760,7 +7396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -6780,7 +7416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -6800,7 +7436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -6820,7 +7456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -6840,7 +7476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -6860,7 +7496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -6880,7 +7516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -6903,7 +7539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -6923,7 +7559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -6943,7 +7579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -6963,7 +7599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -6983,7 +7619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -7006,7 +7642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -7026,7 +7662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -7046,7 +7682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -7066,7 +7702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -7086,7 +7722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -7106,7 +7742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -7126,7 +7762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>

--- a/data/Austerlitz_seizoen_2019-2020.xlsx
+++ b/data/Austerlitz_seizoen_2019-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\src\dartsense\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bas/src/dartsense/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DB507F-8DC1-4849-8CBB-3C0AFC1C9836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24055DE-4B7E-5449-835F-85B5501A3192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13365" yWindow="4080" windowWidth="57840" windowHeight="32040" tabRatio="766" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="766" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-08-30" sheetId="30" r:id="rId1"/>
@@ -23,18 +23,20 @@
     <sheet name="2019-10-18" sheetId="37" r:id="rId8"/>
     <sheet name="2019-10-25" sheetId="38" r:id="rId9"/>
     <sheet name="2019-11-01" sheetId="39" r:id="rId10"/>
+    <sheet name="Koppel 2019-11-08" sheetId="40" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="38">
   <si>
     <t>Baan</t>
   </si>
@@ -138,6 +140,24 @@
   </si>
   <si>
     <t>Reyn</t>
+  </si>
+  <si>
+    <t>Speler</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Matches</t>
+  </si>
+  <si>
+    <t>Lollies</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Finishes</t>
   </si>
 </sst>
 </file>
@@ -2502,9 +2522,9 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2542,7 +2562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2562,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -2582,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2602,7 +2622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2622,7 +2642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2642,7 +2662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2662,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2682,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2702,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2722,7 +2742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2742,7 +2762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>4</v>
       </c>
@@ -2762,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2782,7 +2802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2805,7 +2825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2825,7 +2845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2845,7 +2865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2865,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>4</v>
       </c>
@@ -2885,7 +2905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -2905,7 +2925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -2928,7 +2948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -2948,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2971,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -2991,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>4</v>
       </c>
@@ -3011,7 +3031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -3031,7 +3051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>6</v>
       </c>
@@ -3051,7 +3071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3085,13 +3105,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4D2227-90F8-411A-AE20-E1CAB5F7BDEE}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3129,7 +3149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>6</v>
       </c>
@@ -3149,7 +3169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -3169,7 +3189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>6</v>
       </c>
@@ -3189,7 +3209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -3209,7 +3229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -3229,7 +3249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -3249,7 +3269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -3269,7 +3289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -3289,7 +3309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -3309,7 +3329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -3329,7 +3349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3349,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>3</v>
       </c>
@@ -3369,7 +3389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>6</v>
       </c>
@@ -3389,7 +3409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>5</v>
       </c>
@@ -3409,7 +3429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>6</v>
       </c>
@@ -3429,7 +3449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>6</v>
       </c>
@@ -3449,7 +3469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>6</v>
       </c>
@@ -3469,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -3489,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -3509,7 +3529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>5</v>
       </c>
@@ -3529,7 +3549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>6</v>
       </c>
@@ -3549,7 +3569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -3569,7 +3589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>4</v>
       </c>
@@ -3589,7 +3609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>5</v>
       </c>
@@ -3609,7 +3629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>5</v>
       </c>
@@ -3629,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -3652,6 +3672,229 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD04CC43-AA29-004C-8D0D-940A1E8C4EEA}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3663,9 +3906,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3703,7 +3946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -3723,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3743,7 +3986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3763,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -3783,7 +4026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3803,7 +4046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3823,7 +4066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3843,7 +4086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>4</v>
       </c>
@@ -3863,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -3886,7 +4129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -3906,7 +4149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -3926,7 +4169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -3946,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>4</v>
       </c>
@@ -3966,7 +4209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -3986,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -4006,7 +4249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5</v>
       </c>
@@ -4026,7 +4269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>3</v>
       </c>
@@ -4046,7 +4289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -4066,7 +4309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -4086,7 +4329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -4109,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -4129,7 +4372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -4163,9 +4406,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4203,7 +4446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>5</v>
       </c>
@@ -4226,7 +4469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4246,7 +4489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4266,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4286,7 +4529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4306,7 +4549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4326,7 +4569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -4346,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4366,7 +4609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5</v>
       </c>
@@ -4386,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>5</v>
       </c>
@@ -4406,7 +4649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -4426,7 +4669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -4446,7 +4689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -4466,7 +4709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -4486,7 +4729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>5</v>
       </c>
@@ -4506,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5</v>
       </c>
@@ -4526,7 +4769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>3</v>
       </c>
@@ -4546,7 +4789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -4566,7 +4809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -4586,7 +4829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>5</v>
       </c>
@@ -4606,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -4626,7 +4869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -4646,7 +4889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -4666,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -4689,7 +4932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -4709,7 +4952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -4729,7 +4972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>5</v>
       </c>
@@ -4749,7 +4992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>5</v>
       </c>
@@ -4783,9 +5026,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4823,7 +5066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -4846,7 +5089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4866,7 +5109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -4886,7 +5129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -4906,7 +5149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4929,7 +5172,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4949,7 +5192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4969,7 +5212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4989,7 +5232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -5009,7 +5252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -5029,7 +5272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6</v>
       </c>
@@ -5049,7 +5292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -5069,7 +5312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5089,7 +5332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -5109,7 +5352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -5132,7 +5375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -5152,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -5172,7 +5415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -5209,9 +5452,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5249,7 +5492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -5269,7 +5512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -5292,7 +5535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -5312,7 +5555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -5332,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5352,7 +5595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5372,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5392,7 +5635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -5412,7 +5655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5</v>
       </c>
@@ -5432,7 +5675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -5452,7 +5695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -5472,7 +5715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -5492,7 +5735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -5512,7 +5755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -5532,7 +5775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5552,7 +5795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -5572,7 +5815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>5</v>
       </c>
@@ -5592,7 +5835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -5612,7 +5855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -5632,7 +5875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>5</v>
       </c>
@@ -5652,7 +5895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>5</v>
       </c>
@@ -5672,7 +5915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5692,7 +5935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>3</v>
       </c>
@@ -5712,7 +5955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -5732,7 +5975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>6</v>
       </c>
@@ -5752,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>
@@ -5786,9 +6029,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5826,7 +6069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -5849,7 +6092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -5869,7 +6112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -5889,7 +6132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -5909,7 +6152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -5932,7 +6175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -5952,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5975,7 +6218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -5995,7 +6238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -6015,7 +6258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>5</v>
       </c>
@@ -6035,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6</v>
       </c>
@@ -6061,7 +6304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -6081,7 +6324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>5</v>
       </c>
@@ -6101,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -6121,7 +6364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -6141,7 +6384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>6</v>
       </c>
@@ -6161,7 +6404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>5</v>
       </c>
@@ -6181,7 +6424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -6201,7 +6444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -6221,7 +6464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -6241,7 +6484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>5</v>
       </c>
@@ -6261,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -6295,9 +6538,9 @@
       <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6335,7 +6578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>4</v>
       </c>
@@ -6355,7 +6598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>4</v>
       </c>
@@ -6375,7 +6618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -6395,7 +6638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -6415,7 +6658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -6438,7 +6681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -6458,7 +6701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3</v>
       </c>
@@ -6478,7 +6721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -6498,7 +6741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -6518,7 +6761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -6538,7 +6781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -6558,7 +6801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -6581,7 +6824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -6601,7 +6844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -6621,7 +6864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -6641,7 +6884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -6664,7 +6907,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -6684,7 +6927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -6704,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>3</v>
       </c>
@@ -6724,7 +6967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -6744,7 +6987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -6764,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>6</v>
       </c>
@@ -6797,9 +7040,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6837,7 +7080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -6857,7 +7100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -6877,7 +7120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -6897,7 +7140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -6917,7 +7160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -6937,7 +7180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -6960,7 +7203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6980,7 +7223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -7000,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -7020,7 +7263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -7040,7 +7283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6</v>
       </c>
@@ -7060,7 +7303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -7080,7 +7323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -7100,7 +7343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -7120,7 +7363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -7140,7 +7383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -7160,7 +7403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -7180,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>5</v>
       </c>
@@ -7213,9 +7456,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7253,7 +7496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>6</v>
       </c>
@@ -7273,7 +7516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -7293,7 +7536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7313,7 +7556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7336,7 +7579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7356,7 +7599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7376,7 +7619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -7396,7 +7639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -7416,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -7436,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -7456,7 +7699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>5</v>
       </c>
@@ -7476,7 +7719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -7496,7 +7739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -7516,7 +7759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -7539,7 +7782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -7559,7 +7802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -7579,7 +7822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -7599,7 +7842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -7619,7 +7862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>3</v>
       </c>
@@ -7642,7 +7885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>5</v>
       </c>
@@ -7662,7 +7905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -7682,7 +7925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>6</v>
       </c>
@@ -7702,7 +7945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -7722,7 +7965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>3</v>
       </c>
@@ -7742,7 +7985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>5</v>
       </c>
@@ -7762,7 +8005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>

--- a/data/Austerlitz_seizoen_2019-2020.xlsx
+++ b/data/Austerlitz_seizoen_2019-2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bas/src/dartsense/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24055DE-4B7E-5449-835F-85B5501A3192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BC36AF-C546-C64D-B5FB-119FF135FAB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="766" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="766" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-08-30" sheetId="30" r:id="rId1"/>
@@ -24,9 +24,10 @@
     <sheet name="2019-10-25" sheetId="38" r:id="rId9"/>
     <sheet name="2019-11-01" sheetId="39" r:id="rId10"/>
     <sheet name="Koppel 2019-11-08" sheetId="40" r:id="rId11"/>
+    <sheet name="2019-11-15" sheetId="41" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="38">
   <si>
     <t>Baan</t>
   </si>
@@ -164,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -223,6 +224,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -276,7 +282,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -293,6 +299,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3106,7 +3116,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3679,7 +3689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD04CC43-AA29-004C-8D0D-940A1E8C4EEA}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -3891,6 +3901,581 @@
       </c>
       <c r="E17">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2A8FAD-FD22-F14F-9FE7-D271B3BCC061}">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>3</v>
+      </c>
+      <c r="B12" s="7">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>3</v>
+      </c>
+      <c r="B13" s="7">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>6</v>
+      </c>
+      <c r="B14" s="7">
+        <v>3</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>6</v>
+      </c>
+      <c r="B15" s="7">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7">
+        <v>2</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>6</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>6</v>
+      </c>
+      <c r="B18" s="7">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="7">
+        <v>2</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>6</v>
+      </c>
+      <c r="B19" s="7">
+        <v>4</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>4</v>
+      </c>
+      <c r="B20" s="7">
+        <v>4</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>3</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="7">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/data/Austerlitz_seizoen_2019-2020.xlsx
+++ b/data/Austerlitz_seizoen_2019-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bas/src/dartsense/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BC36AF-C546-C64D-B5FB-119FF135FAB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F29FA68-54F3-4045-862A-539AAB91CEFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="766" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19840" tabRatio="766" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-08-30" sheetId="30" r:id="rId1"/>
@@ -25,9 +25,10 @@
     <sheet name="2019-11-01" sheetId="39" r:id="rId10"/>
     <sheet name="Koppel 2019-11-08" sheetId="40" r:id="rId11"/>
     <sheet name="2019-11-15" sheetId="41" r:id="rId12"/>
+    <sheet name="2019-11-22" sheetId="42" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="38">
   <si>
     <t>Baan</t>
   </si>
@@ -3912,8 +3913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2A8FAD-FD22-F14F-9FE7-D271B3BCC061}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4477,6 +4478,953 @@
       <c r="L21" s="7">
         <v>116</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260C8E01-5B30-2A41-84F3-DB78B4172415}">
+  <dimension ref="A1:L83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>3</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>6</v>
+      </c>
+      <c r="B14" s="7">
+        <v>2</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>4</v>
+      </c>
+      <c r="B15" s="7">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="7">
+        <v>2</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>3</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>2</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>4</v>
+      </c>
+      <c r="B18" s="7">
+        <v>3</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>4</v>
+      </c>
+      <c r="B19" s="7">
+        <v>3</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>4</v>
+      </c>
+      <c r="B20" s="7">
+        <v>3</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>2</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>6</v>
+      </c>
+      <c r="B21" s="7">
+        <v>3</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>6</v>
+      </c>
+      <c r="B22" s="7">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>4</v>
+      </c>
+      <c r="B23" s="7">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>6</v>
+      </c>
+      <c r="B24" s="7">
+        <v>4</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="7">
+        <v>2</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="7">
+        <v>2</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>4</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7">
+        <v>2</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>3</v>
+      </c>
+      <c r="B26" s="7">
+        <v>4</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="7">
+        <v>2</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>3</v>
+      </c>
+      <c r="B27" s="7">
+        <v>4</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="7">
+        <v>2</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>6</v>
+      </c>
+      <c r="B28" s="7">
+        <v>4</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>2</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>3</v>
+      </c>
+      <c r="B29" s="7">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>2</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B47" s="7"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B53" s="7"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B54" s="7"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B55" s="7"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B56" s="7"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B57" s="7"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B58" s="7"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B59" s="7"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B60" s="7"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B61" s="7"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B62" s="7"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B63" s="7"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B64" s="7"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B65" s="7"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B66" s="7"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B67" s="7"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B68" s="7"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B69" s="7"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B70" s="7"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B71" s="7"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B72" s="7"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B73" s="7"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B74" s="7"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B75" s="7"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B76" s="7"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B77" s="7"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B78" s="7"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B79" s="7"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B80" s="7"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B81" s="7"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B82" s="7"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B83" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Austerlitz_seizoen_2019-2020.xlsx
+++ b/data/Austerlitz_seizoen_2019-2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bas/src/dartsense/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F29FA68-54F3-4045-862A-539AAB91CEFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAD6C9E-DA23-A841-8B78-94B879F50AEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19840" tabRatio="766" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19840" tabRatio="766" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-08-30" sheetId="30" r:id="rId1"/>
@@ -26,9 +26,10 @@
     <sheet name="Koppel 2019-11-08" sheetId="40" r:id="rId11"/>
     <sheet name="2019-11-15" sheetId="41" r:id="rId12"/>
     <sheet name="2019-11-22" sheetId="42" r:id="rId13"/>
+    <sheet name="2019-11-29" sheetId="43" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="38">
   <si>
     <t>Baan</t>
   </si>
@@ -4488,8 +4489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260C8E01-5B30-2A41-84F3-DB78B4172415}">
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F29"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5425,6 +5426,633 @@
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B83" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AA878D-9F1D-BF4B-B065-97BF46056AC8}">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7">
+        <v>3</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>3</v>
+      </c>
+      <c r="B15" s="7">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>3</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>6</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>3</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>3</v>
+      </c>
+      <c r="B19" s="7">
+        <v>4</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>4</v>
+      </c>
+      <c r="B20" s="7">
+        <v>4</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>5</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>6</v>
+      </c>
+      <c r="B22" s="7">
+        <v>4</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>6</v>
+      </c>
+      <c r="B23" s="7">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Austerlitz_seizoen_2019-2020.xlsx
+++ b/data/Austerlitz_seizoen_2019-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bas/src/dartsense/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAD6C9E-DA23-A841-8B78-94B879F50AEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E76585-317C-8A47-91EB-7D9EF3465CBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19840" tabRatio="766" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19840" tabRatio="766" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-08-30" sheetId="30" r:id="rId1"/>
@@ -27,9 +27,10 @@
     <sheet name="2019-11-15" sheetId="41" r:id="rId12"/>
     <sheet name="2019-11-22" sheetId="42" r:id="rId13"/>
     <sheet name="2019-11-29" sheetId="43" r:id="rId14"/>
+    <sheet name="2019-12-13" sheetId="44" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="38">
   <si>
     <t>Baan</t>
   </si>
@@ -5436,7 +5437,634 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AA878D-9F1D-BF4B-B065-97BF46056AC8}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7">
+        <v>3</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>3</v>
+      </c>
+      <c r="B15" s="7">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>3</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>6</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>3</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>3</v>
+      </c>
+      <c r="B19" s="7">
+        <v>4</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>4</v>
+      </c>
+      <c r="B20" s="7">
+        <v>4</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>5</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>6</v>
+      </c>
+      <c r="B22" s="7">
+        <v>4</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>6</v>
+      </c>
+      <c r="B23" s="7">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3920AB1A-731A-F54F-A280-C43A63131B80}">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:F23"/>
     </sheetView>
   </sheetViews>
@@ -5488,16 +6116,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E2" s="7">
         <v>2</v>
       </c>
       <c r="F2" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -5508,16 +6136,16 @@
     </row>
     <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E3" s="7">
         <v>0</v>
@@ -5534,22 +6162,22 @@
     </row>
     <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -5560,22 +6188,22 @@
     </row>
     <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E5" s="7">
         <v>2</v>
       </c>
       <c r="F5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -5592,16 +6220,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" s="7">
         <v>2</v>
       </c>
       <c r="F6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -5618,16 +6246,16 @@
         <v>25</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -5644,10 +6272,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E8" s="7">
         <v>2</v>
@@ -5657,33 +6285,33 @@
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="7">
         <v>2</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E9" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -5692,16 +6320,16 @@
     </row>
     <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B10" s="7">
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E10" s="7">
         <v>1</v>
@@ -5724,10 +6352,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E11" s="7">
         <v>1</v>
@@ -5750,16 +6378,16 @@
         <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -5770,16 +6398,16 @@
     </row>
     <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="7">
         <v>3</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E13" s="7">
         <v>2</v>
@@ -5796,22 +6424,22 @@
     </row>
     <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="7">
         <v>3</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -5822,22 +6450,22 @@
     </row>
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" s="7">
         <v>3</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E15" s="7">
         <v>2</v>
       </c>
       <c r="F15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -5848,22 +6476,22 @@
     </row>
     <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B16" s="7">
         <v>3</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E16" s="7">
         <v>2</v>
       </c>
       <c r="F16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -5874,22 +6502,22 @@
     </row>
     <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B17" s="7">
         <v>3</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -5900,19 +6528,19 @@
     </row>
     <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="E18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="7">
         <v>2</v>
@@ -5926,16 +6554,16 @@
     </row>
     <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B19" s="7">
         <v>4</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E19" s="7">
         <v>0</v>
@@ -5952,22 +6580,22 @@
     </row>
     <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" s="7">
         <v>4</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E20" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -5978,16 +6606,16 @@
     </row>
     <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" s="7">
         <v>4</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E21" s="7">
         <v>2</v>
@@ -6010,16 +6638,16 @@
         <v>4</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -6030,16 +6658,16 @@
     </row>
     <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B23" s="7">
         <v>4</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E23" s="7">
         <v>2</v>

--- a/data/Austerlitz_seizoen_2019-2020.xlsx
+++ b/data/Austerlitz_seizoen_2019-2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bas/src/dartsense/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E76585-317C-8A47-91EB-7D9EF3465CBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128B1C35-8224-B244-AFD1-07FE5B4FE97B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19840" tabRatio="766" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19840" tabRatio="766" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-08-30" sheetId="30" r:id="rId1"/>
@@ -4490,8 +4490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260C8E01-5B30-2A41-84F3-DB78B4172415}">
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4893,10 +4893,10 @@
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="7">
-        <v>2</v>
-      </c>
+      <c r="I15" s="8">
+        <v>2</v>
+      </c>
+      <c r="J15" s="7"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
@@ -5438,7 +5438,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6064,7 +6064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3920AB1A-731A-F54F-A280-C43A63131B80}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:F23"/>
     </sheetView>
   </sheetViews>

--- a/data/Austerlitz_seizoen_2019-2020.xlsx
+++ b/data/Austerlitz_seizoen_2019-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bas/src/dartsense/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128B1C35-8224-B244-AFD1-07FE5B4FE97B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8DF913-57ED-449D-94B1-3AE22F3DA6F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19840" tabRatio="766" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="57600" windowHeight="31800" tabRatio="766" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-08-30" sheetId="30" r:id="rId1"/>
@@ -28,9 +28,10 @@
     <sheet name="2019-11-22" sheetId="42" r:id="rId13"/>
     <sheet name="2019-11-29" sheetId="43" r:id="rId14"/>
     <sheet name="2019-12-13" sheetId="44" r:id="rId15"/>
+    <sheet name="2019-12-20" sheetId="45" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="38">
   <si>
     <t>Baan</t>
   </si>
@@ -285,7 +286,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -306,6 +307,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2535,9 +2545,9 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2575,7 +2585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2595,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -2615,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2635,7 +2645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2655,7 +2665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2675,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2695,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2715,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2735,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2755,7 +2765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2775,7 +2785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -2795,7 +2805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2815,7 +2825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2838,7 +2848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2858,7 +2868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2878,7 +2888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2898,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -2918,7 +2928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -2938,7 +2948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -2961,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -2981,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -3004,7 +3014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -3024,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4</v>
       </c>
@@ -3044,7 +3054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -3064,7 +3074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
@@ -3084,7 +3094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3122,9 +3132,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3162,7 +3172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>6</v>
       </c>
@@ -3182,7 +3192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -3202,7 +3212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>6</v>
       </c>
@@ -3222,7 +3232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -3242,7 +3252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -3262,7 +3272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -3282,7 +3292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -3302,7 +3312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -3322,7 +3332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -3342,7 +3352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -3362,7 +3372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3382,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>3</v>
       </c>
@@ -3402,7 +3412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>6</v>
       </c>
@@ -3422,7 +3432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>5</v>
       </c>
@@ -3442,7 +3452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>6</v>
       </c>
@@ -3462,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>6</v>
       </c>
@@ -3482,7 +3492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>6</v>
       </c>
@@ -3502,7 +3512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -3522,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -3542,7 +3552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>5</v>
       </c>
@@ -3562,7 +3572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>6</v>
       </c>
@@ -3582,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -3602,7 +3612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>4</v>
       </c>
@@ -3622,7 +3632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>5</v>
       </c>
@@ -3642,7 +3652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>5</v>
       </c>
@@ -3662,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -3696,9 +3706,9 @@
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -3718,7 +3728,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -3729,7 +3739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -3740,7 +3750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -3754,7 +3764,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -3765,7 +3775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3779,7 +3789,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -3793,7 +3803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -3804,7 +3814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3815,7 +3825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3826,7 +3836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3837,7 +3847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3848,7 +3858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -3859,7 +3869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3870,7 +3880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3881,7 +3891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3892,7 +3902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3919,9 +3929,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3959,7 +3969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>3</v>
       </c>
@@ -3985,7 +3995,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>3</v>
       </c>
@@ -4011,7 +4021,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>6</v>
       </c>
@@ -4037,7 +4047,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>6</v>
       </c>
@@ -4063,7 +4073,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -4089,7 +4099,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4115,7 +4125,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -4141,7 +4151,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -4167,7 +4177,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -4193,7 +4203,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -4219,7 +4229,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>3</v>
       </c>
@@ -4245,7 +4255,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>3</v>
       </c>
@@ -4271,7 +4281,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>6</v>
       </c>
@@ -4297,7 +4307,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>6</v>
       </c>
@@ -4323,7 +4333,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>6</v>
       </c>
@@ -4349,7 +4359,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>3</v>
       </c>
@@ -4375,7 +4385,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>6</v>
       </c>
@@ -4401,7 +4411,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>6</v>
       </c>
@@ -4427,7 +4437,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>4</v>
       </c>
@@ -4453,7 +4463,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>3</v>
       </c>
@@ -4488,15 +4498,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260C8E01-5B30-2A41-84F3-DB78B4172415}">
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4534,899 +4544,571 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>3</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="7">
-        <v>2</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7">
-        <v>2</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="7">
-        <v>2</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>2</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="7">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>2</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>3</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>2</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>6</v>
-      </c>
-      <c r="B9" s="7">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7">
-        <v>2</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="7">
-        <v>2</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>2</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>6</v>
-      </c>
-      <c r="B11" s="7">
-        <v>2</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="7">
-        <v>2</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>4</v>
-      </c>
-      <c r="B12" s="7">
-        <v>2</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="7">
-        <v>2</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>3</v>
-      </c>
-      <c r="B13" s="7">
-        <v>2</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>2</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>6</v>
-      </c>
-      <c r="B14" s="7">
-        <v>2</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="7">
-        <v>2</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>4</v>
-      </c>
-      <c r="B15" s="7">
-        <v>2</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="7">
-        <v>2</v>
-      </c>
-      <c r="F15" s="7">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8">
-        <v>2</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>3</v>
-      </c>
-      <c r="B16" s="7">
-        <v>3</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="7">
-        <v>2</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>3</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>2</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>4</v>
-      </c>
-      <c r="B18" s="7">
-        <v>3</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>2</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>4</v>
-      </c>
-      <c r="B19" s="7">
-        <v>3</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="7">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7">
-        <v>2</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>4</v>
-      </c>
-      <c r="B20" s="7">
-        <v>3</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>2</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
-        <v>6</v>
-      </c>
-      <c r="B21" s="7">
-        <v>3</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="7">
-        <v>2</v>
-      </c>
-      <c r="F21" s="7">
-        <v>1</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>6</v>
-      </c>
-      <c r="B22" s="7">
-        <v>3</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="7">
-        <v>2</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
-        <v>4</v>
-      </c>
-      <c r="B23" s="7">
-        <v>4</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="7">
-        <v>2</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
-        <v>6</v>
-      </c>
-      <c r="B24" s="7">
-        <v>4</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="7">
-        <v>2</v>
-      </c>
-      <c r="F24" s="7">
-        <v>1</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="7">
-        <v>2</v>
-      </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-    </row>
-    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
-        <v>4</v>
-      </c>
-      <c r="B25" s="7">
-        <v>4</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="7">
-        <v>1</v>
-      </c>
-      <c r="F25" s="7">
-        <v>2</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-    </row>
-    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
-        <v>3</v>
-      </c>
-      <c r="B26" s="7">
-        <v>4</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="7">
-        <v>2</v>
-      </c>
-      <c r="F26" s="7">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-    </row>
-    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
-        <v>3</v>
-      </c>
-      <c r="B27" s="7">
-        <v>4</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="7">
-        <v>2</v>
-      </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-    </row>
-    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
-        <v>6</v>
-      </c>
-      <c r="B28" s="7">
-        <v>4</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="7">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7">
-        <v>2</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-    </row>
-    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
-        <v>3</v>
-      </c>
-      <c r="B29" s="7">
-        <v>4</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="7">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
-        <v>2</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B30" s="7"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B31" s="7"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="7"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" s="7"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="7"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="7"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B38" s="7"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B39" s="7"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B41" s="7"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B42" s="7"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B43" s="7"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B44" s="7"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B45" s="7"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B46" s="7"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B47" s="7"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B48" s="7"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B49" s="7"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B50" s="7"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B51" s="7"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B52" s="7"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B53" s="7"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B54" s="7"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B55" s="7"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B56" s="7"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B57" s="7"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B58" s="7"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B59" s="7"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B60" s="7"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B61" s="7"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B62" s="7"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B63" s="7"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B64" s="7"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B65" s="7"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B66" s="7"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B67" s="7"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B68" s="7"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B69" s="7"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B70" s="7"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B71" s="7"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B72" s="7"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B73" s="7"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B74" s="7"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B75" s="7"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B76" s="7"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B77" s="7"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B78" s="7"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B79" s="7"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B80" s="7"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B81" s="7"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B82" s="7"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B83" s="7"/>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5441,9 +5123,9 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5481,7 +5163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>6</v>
       </c>
@@ -5507,7 +5189,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>6</v>
       </c>
@@ -5533,7 +5215,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>4</v>
       </c>
@@ -5559,7 +5241,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -5585,7 +5267,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5611,7 +5293,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -5637,7 +5319,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -5663,7 +5345,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -5691,7 +5373,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -5717,7 +5399,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>3</v>
       </c>
@@ -5743,7 +5425,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -5769,7 +5451,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>4</v>
       </c>
@@ -5795,7 +5477,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>4</v>
       </c>
@@ -5821,7 +5503,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>3</v>
       </c>
@@ -5847,7 +5529,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>3</v>
       </c>
@@ -5873,7 +5555,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>6</v>
       </c>
@@ -5899,7 +5581,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>3</v>
       </c>
@@ -5925,7 +5607,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>3</v>
       </c>
@@ -5951,7 +5633,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>4</v>
       </c>
@@ -5977,7 +5659,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>5</v>
       </c>
@@ -6003,7 +5685,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>6</v>
       </c>
@@ -6029,7 +5711,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>6</v>
       </c>
@@ -6065,12 +5747,12 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F23"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6108,582 +5790,871 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>6</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="7">
-        <v>2</v>
-      </c>
-      <c r="F2" s="7">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>2</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="7">
-        <v>2</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7">
-        <v>2</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="7">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>2</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7">
-        <v>2</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="7">
-        <v>1</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>3</v>
-      </c>
-      <c r="B9" s="7">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>2</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7">
-        <v>2</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-      <c r="F10" s="7">
-        <v>2</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>3</v>
-      </c>
-      <c r="B11" s="7">
-        <v>2</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7">
-        <v>2</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>6</v>
-      </c>
-      <c r="B12" s="7">
-        <v>2</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="7">
-        <v>2</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>3</v>
-      </c>
-      <c r="B13" s="7">
-        <v>3</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="7">
-        <v>2</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>3</v>
-      </c>
-      <c r="B14" s="7">
-        <v>3</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="7">
-        <v>2</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>5</v>
       </c>
-      <c r="B15" s="7">
-        <v>3</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="7">
-        <v>2</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>6</v>
-      </c>
-      <c r="B16" s="7">
-        <v>3</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="7">
-        <v>2</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>3</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>2</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>5</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>2</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>6</v>
-      </c>
-      <c r="B19" s="7">
-        <v>4</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>2</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>5</v>
       </c>
-      <c r="B20" s="7">
-        <v>4</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>2</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
-        <v>6</v>
-      </c>
-      <c r="B21" s="7">
-        <v>4</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="7">
-        <v>2</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>6</v>
-      </c>
-      <c r="B22" s="7">
-        <v>4</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="7">
-        <v>1</v>
-      </c>
-      <c r="F22" s="7">
-        <v>2</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
-        <v>3</v>
-      </c>
-      <c r="B23" s="7">
-        <v>4</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="7">
-        <v>2</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E0C4F8-7482-4FCF-A574-1C1307D72380}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="E2:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>3</v>
+      </c>
+      <c r="B10" s="10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>3</v>
+      </c>
+      <c r="B11" s="10">
+        <v>3</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>6</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>6</v>
+      </c>
+      <c r="B13" s="10">
+        <v>4</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>6</v>
+      </c>
+      <c r="B14" s="10">
+        <v>4</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>3</v>
+      </c>
+      <c r="B15" s="10">
+        <v>4</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6695,9 +6666,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6735,7 +6706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -6755,7 +6726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -6775,7 +6746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -6795,7 +6766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -6815,7 +6786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6835,7 +6806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6855,7 +6826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6875,7 +6846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -6895,7 +6866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -6918,7 +6889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -6938,7 +6909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -6958,7 +6929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -6978,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -6998,7 +6969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -7018,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -7038,7 +7009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -7058,7 +7029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -7078,7 +7049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -7098,7 +7069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -7118,7 +7089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -7141,7 +7112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -7161,7 +7132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -7195,9 +7166,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7235,7 +7206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5</v>
       </c>
@@ -7258,7 +7229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7278,7 +7249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7298,7 +7269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -7318,7 +7289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -7338,7 +7309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7358,7 +7329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -7378,7 +7349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -7398,7 +7369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -7418,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -7438,7 +7409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -7458,7 +7429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -7478,7 +7449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -7498,7 +7469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -7518,7 +7489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5</v>
       </c>
@@ -7538,7 +7509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -7558,7 +7529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -7578,7 +7549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -7598,7 +7569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -7618,7 +7589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -7638,7 +7609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -7658,7 +7629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -7678,7 +7649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -7698,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -7721,7 +7692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -7741,7 +7712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -7761,7 +7732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5</v>
       </c>
@@ -7781,7 +7752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
@@ -7815,9 +7786,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7855,7 +7826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -7878,7 +7849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7898,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -7918,7 +7889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -7938,7 +7909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -7961,7 +7932,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -7981,7 +7952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8001,7 +7972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -8021,7 +7992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -8041,7 +8012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -8061,7 +8032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -8081,7 +8052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -8101,7 +8072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -8121,7 +8092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -8141,7 +8112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -8164,7 +8135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -8184,7 +8155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -8204,7 +8175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -8241,9 +8212,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8281,7 +8252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -8301,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -8324,7 +8295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -8344,7 +8315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -8364,7 +8335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8384,7 +8355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8404,7 +8375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8424,7 +8395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -8444,7 +8415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -8464,7 +8435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -8484,7 +8455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -8504,7 +8475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -8524,7 +8495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -8544,7 +8515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -8564,7 +8535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -8584,7 +8555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -8604,7 +8575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
@@ -8624,7 +8595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -8644,7 +8615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -8664,7 +8635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -8684,7 +8655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -8704,7 +8675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -8724,7 +8695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -8744,7 +8715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -8764,7 +8735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
@@ -8784,7 +8755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -8818,9 +8789,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8858,7 +8829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -8881,7 +8852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -8901,7 +8872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -8921,7 +8892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -8941,7 +8912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -8964,7 +8935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -8984,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -9007,7 +8978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -9027,7 +8998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -9047,7 +9018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -9067,7 +9038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -9093,7 +9064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -9113,7 +9084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
@@ -9133,7 +9104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -9153,7 +9124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -9173,7 +9144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6</v>
       </c>
@@ -9193,7 +9164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
@@ -9213,7 +9184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -9233,7 +9204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -9253,7 +9224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -9273,7 +9244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -9293,7 +9264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -9327,9 +9298,9 @@
       <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9367,7 +9338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
@@ -9387,7 +9358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -9407,7 +9378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -9427,7 +9398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -9447,7 +9418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -9470,7 +9441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -9490,7 +9461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -9510,7 +9481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -9530,7 +9501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -9550,7 +9521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -9570,7 +9541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -9590,7 +9561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -9613,7 +9584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -9633,7 +9604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -9653,7 +9624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -9673,7 +9644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -9696,7 +9667,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -9716,7 +9687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -9736,7 +9707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -9756,7 +9727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -9776,7 +9747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -9796,7 +9767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -9825,13 +9796,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D941F6FC-86C6-43B0-B27E-ED99EDE57BFE}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9869,7 +9840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -9889,7 +9860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -9909,7 +9880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -9929,7 +9900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -9949,7 +9920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -9969,7 +9940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -9992,7 +9963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10012,7 +9983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -10032,7 +10003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -10052,7 +10023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -10072,7 +10043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -10092,7 +10063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -10112,7 +10083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -10132,7 +10103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -10152,7 +10123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -10172,7 +10143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -10192,7 +10163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -10212,7 +10183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -10245,9 +10216,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10285,7 +10256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6</v>
       </c>
@@ -10305,7 +10276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -10325,7 +10296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10345,7 +10316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10368,7 +10339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10388,7 +10359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10408,7 +10379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -10428,7 +10399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -10448,7 +10419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -10468,7 +10439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -10488,7 +10459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -10508,7 +10479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -10528,7 +10499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -10548,7 +10519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -10571,7 +10542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -10591,7 +10562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -10611,7 +10582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -10631,7 +10602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -10651,7 +10622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -10674,7 +10645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -10694,7 +10665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -10714,7 +10685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -10734,7 +10705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -10754,7 +10725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -10774,7 +10745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -10794,7 +10765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>

--- a/data/Austerlitz_seizoen_2019-2020.xlsx
+++ b/data/Austerlitz_seizoen_2019-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bas\OneDrive\pers_dev\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8DF913-57ED-449D-94B1-3AE22F3DA6F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{7A8DF913-57ED-449D-94B1-3AE22F3DA6F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{27EF7815-B4D3-4158-BEF1-FB54A44C8E3E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="57600" windowHeight="31800" tabRatio="766" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" firstSheet="3" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-08-30" sheetId="30" r:id="rId1"/>
@@ -29,9 +29,10 @@
     <sheet name="2019-11-29" sheetId="43" r:id="rId14"/>
     <sheet name="2019-12-13" sheetId="44" r:id="rId15"/>
     <sheet name="2019-12-20" sheetId="45" r:id="rId16"/>
+    <sheet name="2020-01-03" sheetId="47" r:id="rId17"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="38">
   <si>
     <t>Baan</t>
   </si>
@@ -6243,7 +6244,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="E2:F15"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6655,6 +6656,667 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D1C25F-190C-456D-A1BB-201913717D76}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9796,7 +10458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D941F6FC-86C6-43B0-B27E-ED99EDE57BFE}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>

--- a/data/Austerlitz_seizoen_2019-2020.xlsx
+++ b/data/Austerlitz_seizoen_2019-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bas\OneDrive\pers_dev\dartsense\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bas/src/dartsense/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{7A8DF913-57ED-449D-94B1-3AE22F3DA6F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{27EF7815-B4D3-4158-BEF1-FB54A44C8E3E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B628CBDE-CAFB-7748-A6E1-2E256ACCFD3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" firstSheet="3" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19820" tabRatio="766" firstSheet="4" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-08-30" sheetId="30" r:id="rId1"/>
@@ -30,9 +30,10 @@
     <sheet name="2019-12-13" sheetId="44" r:id="rId15"/>
     <sheet name="2019-12-20" sheetId="45" r:id="rId16"/>
     <sheet name="2020-01-03" sheetId="47" r:id="rId17"/>
+    <sheet name="2020-01-10" sheetId="48" r:id="rId18"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="38">
   <si>
     <t>Baan</t>
   </si>
@@ -2546,9 +2547,9 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2606,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -2626,7 +2627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2646,7 +2647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2666,7 +2667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2686,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2706,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2746,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2766,7 +2767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2786,7 +2787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>4</v>
       </c>
@@ -2806,7 +2807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2826,7 +2827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2849,7 +2850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2869,7 +2870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2889,7 +2890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2909,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>4</v>
       </c>
@@ -2929,7 +2930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -2972,7 +2973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -2992,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -3015,7 +3016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -3035,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>4</v>
       </c>
@@ -3055,7 +3056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -3075,7 +3076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>6</v>
       </c>
@@ -3095,7 +3096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3133,9 +3134,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3173,7 +3174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>6</v>
       </c>
@@ -3193,7 +3194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -3213,7 +3214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>6</v>
       </c>
@@ -3233,7 +3234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -3253,7 +3254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -3273,7 +3274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -3293,7 +3294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -3313,7 +3314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -3333,7 +3334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -3353,7 +3354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -3373,7 +3374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3393,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>3</v>
       </c>
@@ -3413,7 +3414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>6</v>
       </c>
@@ -3433,7 +3434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>5</v>
       </c>
@@ -3453,7 +3454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>6</v>
       </c>
@@ -3473,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>6</v>
       </c>
@@ -3493,7 +3494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>6</v>
       </c>
@@ -3513,7 +3514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -3533,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -3553,7 +3554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>5</v>
       </c>
@@ -3573,7 +3574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>6</v>
       </c>
@@ -3593,7 +3594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -3613,7 +3614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>4</v>
       </c>
@@ -3633,7 +3634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>5</v>
       </c>
@@ -3653,7 +3654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>5</v>
       </c>
@@ -3673,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -3707,9 +3708,9 @@
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -3729,7 +3730,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -3740,7 +3741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -3751,7 +3752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -3765,7 +3766,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -3776,7 +3777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3790,7 +3791,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -3804,7 +3805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -3815,7 +3816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3826,7 +3827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3837,7 +3838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3848,7 +3849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3859,7 +3860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -3870,7 +3871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3881,7 +3882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3892,7 +3893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3903,7 +3904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3930,9 +3931,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3970,7 +3971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>3</v>
       </c>
@@ -3996,7 +3997,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>3</v>
       </c>
@@ -4022,7 +4023,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>6</v>
       </c>
@@ -4048,7 +4049,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>6</v>
       </c>
@@ -4074,7 +4075,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -4100,7 +4101,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4126,7 +4127,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -4152,7 +4153,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -4178,7 +4179,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -4204,7 +4205,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -4230,7 +4231,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>3</v>
       </c>
@@ -4256,7 +4257,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>3</v>
       </c>
@@ -4282,7 +4283,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>6</v>
       </c>
@@ -4308,7 +4309,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>6</v>
       </c>
@@ -4334,7 +4335,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>6</v>
       </c>
@@ -4360,7 +4361,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>3</v>
       </c>
@@ -4386,7 +4387,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>6</v>
       </c>
@@ -4412,7 +4413,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>6</v>
       </c>
@@ -4438,7 +4439,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>4</v>
       </c>
@@ -4464,7 +4465,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>3</v>
       </c>
@@ -4505,9 +4506,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4545,7 +4546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -4565,7 +4566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>4</v>
       </c>
@@ -4585,7 +4586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -4605,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -4625,7 +4626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4645,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4665,7 +4666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3</v>
       </c>
@@ -4685,7 +4686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4705,7 +4706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -4725,7 +4726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -4745,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>4</v>
       </c>
@@ -4765,7 +4766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4785,7 +4786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -4805,7 +4806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>4</v>
       </c>
@@ -4828,7 +4829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -4848,7 +4849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -4868,7 +4869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>4</v>
       </c>
@@ -4888,7 +4889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>4</v>
       </c>
@@ -4908,7 +4909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>4</v>
       </c>
@@ -4928,7 +4929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -4948,7 +4949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -4968,7 +4969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>4</v>
       </c>
@@ -4988,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -5011,7 +5012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>4</v>
       </c>
@@ -5031,7 +5032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -5051,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -5071,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -5091,7 +5092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -5124,9 +5125,9 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5164,7 +5165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>6</v>
       </c>
@@ -5190,7 +5191,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>6</v>
       </c>
@@ -5216,7 +5217,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>4</v>
       </c>
@@ -5242,7 +5243,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -5268,7 +5269,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5294,7 +5295,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -5320,7 +5321,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -5346,7 +5347,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -5374,7 +5375,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -5400,7 +5401,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>3</v>
       </c>
@@ -5426,7 +5427,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -5452,7 +5453,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>4</v>
       </c>
@@ -5478,7 +5479,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>4</v>
       </c>
@@ -5504,7 +5505,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>3</v>
       </c>
@@ -5530,7 +5531,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>3</v>
       </c>
@@ -5556,7 +5557,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>6</v>
       </c>
@@ -5582,7 +5583,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>3</v>
       </c>
@@ -5608,7 +5609,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>3</v>
       </c>
@@ -5634,7 +5635,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>4</v>
       </c>
@@ -5660,7 +5661,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>5</v>
       </c>
@@ -5686,7 +5687,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>6</v>
       </c>
@@ -5712,7 +5713,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>6</v>
       </c>
@@ -5751,9 +5752,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5791,7 +5792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>6</v>
       </c>
@@ -5811,7 +5812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -5831,7 +5832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5851,7 +5852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -5871,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5891,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -5911,7 +5912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5934,7 +5935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3</v>
       </c>
@@ -5954,7 +5955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -5974,7 +5975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -5994,7 +5995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6</v>
       </c>
@@ -6014,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -6034,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -6054,7 +6055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -6074,7 +6075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -6094,7 +6095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -6114,7 +6115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>5</v>
       </c>
@@ -6134,7 +6135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -6154,7 +6155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>5</v>
       </c>
@@ -6174,7 +6175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -6194,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -6214,7 +6215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -6247,9 +6248,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6287,7 +6288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>6</v>
       </c>
@@ -6313,7 +6314,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -6339,7 +6340,7 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -6365,7 +6366,7 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -6391,7 +6392,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -6417,7 +6418,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -6443,7 +6444,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -6471,7 +6472,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -6497,7 +6498,7 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -6523,7 +6524,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -6549,7 +6550,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -6575,7 +6576,7 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>6</v>
       </c>
@@ -6601,7 +6602,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>6</v>
       </c>
@@ -6627,7 +6628,7 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -6663,11 +6664,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D1C25F-190C-456D-A1BB-201913717D76}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6705,7 +6708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2</v>
       </c>
@@ -6725,7 +6728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6745,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6765,7 +6768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6785,7 +6788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6805,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -6828,7 +6831,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2</v>
       </c>
@@ -6848,7 +6851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>4</v>
       </c>
@@ -6868,7 +6871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -6888,7 +6891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -6908,7 +6911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2</v>
       </c>
@@ -6928,7 +6931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2</v>
       </c>
@@ -6948,7 +6951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -6968,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>4</v>
       </c>
@@ -6988,7 +6991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -7008,7 +7011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>4</v>
       </c>
@@ -7028,7 +7031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2</v>
       </c>
@@ -7051,7 +7054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
@@ -7071,7 +7074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>4</v>
       </c>
@@ -7091,7 +7094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>4</v>
       </c>
@@ -7111,7 +7114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -7131,7 +7134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -7151,7 +7154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>3</v>
       </c>
@@ -7174,7 +7177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>4</v>
       </c>
@@ -7194,7 +7197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -7214,7 +7217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>2</v>
       </c>
@@ -7234,7 +7237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>2</v>
       </c>
@@ -7254,7 +7257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>4</v>
       </c>
@@ -7274,7 +7277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>2</v>
       </c>
@@ -7288,13 +7291,13 @@
         <v>27</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>4</v>
       </c>
@@ -7317,6 +7320,691 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFB86B2-78C1-F243-A4DA-7A092CF926E6}">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="7">
+        <v>102</v>
+      </c>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7">
+        <v>3</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>4</v>
+      </c>
+      <c r="B15" s="7">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>2</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>3</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7">
+        <v>2</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>6</v>
+      </c>
+      <c r="B18" s="7">
+        <v>3</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="7">
+        <v>2</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>6</v>
+      </c>
+      <c r="B19" s="7">
+        <v>3</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>6</v>
+      </c>
+      <c r="B20" s="7">
+        <v>4</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>3</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>3</v>
+      </c>
+      <c r="B22" s="7">
+        <v>4</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>4</v>
+      </c>
+      <c r="B23" s="7">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>6</v>
+      </c>
+      <c r="B24" s="7">
+        <v>4</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>2</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>6</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7328,9 +8016,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7368,7 +8056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -7388,7 +8076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7408,7 +8096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4</v>
       </c>
@@ -7428,7 +8116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -7448,7 +8136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7468,7 +8156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7488,7 +8176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7508,7 +8196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>4</v>
       </c>
@@ -7528,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -7551,7 +8239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -7571,7 +8259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -7591,7 +8279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -7611,7 +8299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>4</v>
       </c>
@@ -7631,7 +8319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -7651,7 +8339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -7671,7 +8359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5</v>
       </c>
@@ -7691,7 +8379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>3</v>
       </c>
@@ -7711,7 +8399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -7731,7 +8419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -7751,7 +8439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -7774,7 +8462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -7794,7 +8482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -7828,9 +8516,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7868,7 +8556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>5</v>
       </c>
@@ -7891,7 +8579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7911,7 +8599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7931,7 +8619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -7951,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -7971,7 +8659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7991,7 +8679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -8011,7 +8699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -8031,7 +8719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5</v>
       </c>
@@ -8051,7 +8739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>5</v>
       </c>
@@ -8071,7 +8759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -8091,7 +8779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -8111,7 +8799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -8131,7 +8819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -8151,7 +8839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>5</v>
       </c>
@@ -8171,7 +8859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5</v>
       </c>
@@ -8191,7 +8879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>3</v>
       </c>
@@ -8211,7 +8899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -8231,7 +8919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -8251,7 +8939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>5</v>
       </c>
@@ -8271,7 +8959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -8291,7 +8979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -8311,7 +8999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -8331,7 +9019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -8354,7 +9042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -8374,7 +9062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -8394,7 +9082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>5</v>
       </c>
@@ -8414,7 +9102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>5</v>
       </c>
@@ -8448,9 +9136,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8488,7 +9176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -8511,7 +9199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -8531,7 +9219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -8551,7 +9239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -8571,7 +9259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8594,7 +9282,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -8614,7 +9302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8634,7 +9322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -8654,7 +9342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -8674,7 +9362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -8694,7 +9382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6</v>
       </c>
@@ -8714,7 +9402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -8734,7 +9422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -8754,7 +9442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -8774,7 +9462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -8797,7 +9485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -8817,7 +9505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -8837,7 +9525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -8874,9 +9562,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8914,7 +9602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -8934,7 +9622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -8957,7 +9645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -8977,7 +9665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -8997,7 +9685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -9017,7 +9705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9037,7 +9725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -9057,7 +9745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -9077,7 +9765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5</v>
       </c>
@@ -9097,7 +9785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -9117,7 +9805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -9137,7 +9825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -9157,7 +9845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -9177,7 +9865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -9197,7 +9885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -9217,7 +9905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -9237,7 +9925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>5</v>
       </c>
@@ -9257,7 +9945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -9277,7 +9965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -9297,7 +9985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>5</v>
       </c>
@@ -9317,7 +10005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>5</v>
       </c>
@@ -9337,7 +10025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -9357,7 +10045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>3</v>
       </c>
@@ -9377,7 +10065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -9397,7 +10085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>6</v>
       </c>
@@ -9417,7 +10105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>
@@ -9451,9 +10139,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9491,7 +10179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -9514,7 +10202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -9534,7 +10222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -9554,7 +10242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -9574,7 +10262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -9597,7 +10285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -9617,7 +10305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -9640,7 +10328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -9660,7 +10348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -9680,7 +10368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>5</v>
       </c>
@@ -9700,7 +10388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6</v>
       </c>
@@ -9726,7 +10414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -9746,7 +10434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>5</v>
       </c>
@@ -9766,7 +10454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -9786,7 +10474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -9806,7 +10494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>6</v>
       </c>
@@ -9826,7 +10514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>5</v>
       </c>
@@ -9846,7 +10534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -9866,7 +10554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -9886,7 +10574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -9906,7 +10594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>5</v>
       </c>
@@ -9926,7 +10614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -9960,9 +10648,9 @@
       <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10000,7 +10688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>4</v>
       </c>
@@ -10020,7 +10708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>4</v>
       </c>
@@ -10040,7 +10728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -10060,7 +10748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -10080,7 +10768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -10103,7 +10791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -10123,7 +10811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3</v>
       </c>
@@ -10143,7 +10831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -10163,7 +10851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -10183,7 +10871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -10203,7 +10891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -10223,7 +10911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -10246,7 +10934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -10266,7 +10954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -10286,7 +10974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -10306,7 +10994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -10329,7 +11017,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -10349,7 +11037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -10369,7 +11057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>3</v>
       </c>
@@ -10389,7 +11077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -10409,7 +11097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -10429,7 +11117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>6</v>
       </c>
@@ -10462,9 +11150,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10502,7 +11190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -10522,7 +11210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -10542,7 +11230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -10562,7 +11250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -10582,7 +11270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -10602,7 +11290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -10625,7 +11313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10645,7 +11333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -10665,7 +11353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -10685,7 +11373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -10705,7 +11393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6</v>
       </c>
@@ -10725,7 +11413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -10745,7 +11433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -10765,7 +11453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -10785,7 +11473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -10805,7 +11493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -10825,7 +11513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -10845,7 +11533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>5</v>
       </c>
@@ -10878,9 +11566,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10918,7 +11606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>6</v>
       </c>
@@ -10938,7 +11626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -10958,7 +11646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10978,7 +11666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -11001,7 +11689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11021,7 +11709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -11041,7 +11729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -11061,7 +11749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -11081,7 +11769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -11101,7 +11789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -11121,7 +11809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>5</v>
       </c>
@@ -11141,7 +11829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -11161,7 +11849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -11181,7 +11869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -11204,7 +11892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -11224,7 +11912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -11244,7 +11932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -11264,7 +11952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -11284,7 +11972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>3</v>
       </c>
@@ -11307,7 +11995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>5</v>
       </c>
@@ -11327,7 +12015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -11347,7 +12035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>6</v>
       </c>
@@ -11367,7 +12055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -11387,7 +12075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>3</v>
       </c>
@@ -11407,7 +12095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>5</v>
       </c>
@@ -11427,7 +12115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>

--- a/data/Austerlitz_seizoen_2019-2020.xlsx
+++ b/data/Austerlitz_seizoen_2019-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bas/src/dartsense/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bas\OneDrive\pers_dev\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B628CBDE-CAFB-7748-A6E1-2E256ACCFD3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="114_{2EAC6C1F-7181-438E-8EC4-41166E4CA87A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4DE3EF9A-3127-431E-AC35-2F072E1939E8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19820" tabRatio="766" firstSheet="4" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" firstSheet="6" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-08-30" sheetId="30" r:id="rId1"/>
@@ -31,9 +31,10 @@
     <sheet name="2019-12-20" sheetId="45" r:id="rId16"/>
     <sheet name="2020-01-03" sheetId="47" r:id="rId17"/>
     <sheet name="2020-01-10" sheetId="48" r:id="rId18"/>
+    <sheet name="2020-01-17" sheetId="49" r:id="rId19"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="38">
   <si>
     <t>Baan</t>
   </si>
@@ -2547,9 +2548,9 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2587,7 +2588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2607,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -2627,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2647,7 +2648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2667,7 +2668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2687,7 +2688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2707,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2727,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2747,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2767,7 +2768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2787,7 +2788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -2807,7 +2808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2827,7 +2828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2850,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2870,7 +2871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2890,7 +2891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2910,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -2930,7 +2931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -2950,7 +2951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -2973,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -2993,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -3016,7 +3017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -3036,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4</v>
       </c>
@@ -3056,7 +3057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -3076,7 +3077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
@@ -3096,7 +3097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3134,9 +3135,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3174,7 +3175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>6</v>
       </c>
@@ -3194,7 +3195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -3214,7 +3215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>6</v>
       </c>
@@ -3234,7 +3235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -3254,7 +3255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -3274,7 +3275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -3294,7 +3295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -3314,7 +3315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -3334,7 +3335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -3354,7 +3355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -3374,7 +3375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>3</v>
       </c>
@@ -3414,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>6</v>
       </c>
@@ -3434,7 +3435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>5</v>
       </c>
@@ -3454,7 +3455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>6</v>
       </c>
@@ -3474,7 +3475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>6</v>
       </c>
@@ -3494,7 +3495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>6</v>
       </c>
@@ -3514,7 +3515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -3534,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -3554,7 +3555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>5</v>
       </c>
@@ -3574,7 +3575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>6</v>
       </c>
@@ -3594,7 +3595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -3614,7 +3615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>4</v>
       </c>
@@ -3634,7 +3635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>5</v>
       </c>
@@ -3654,7 +3655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>5</v>
       </c>
@@ -3674,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -3708,9 +3709,9 @@
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -3730,7 +3731,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -3741,7 +3742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -3752,7 +3753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -3766,7 +3767,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -3777,7 +3778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3791,7 +3792,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -3805,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -3816,7 +3817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3827,7 +3828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3838,7 +3839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3849,7 +3850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3860,7 +3861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -3871,7 +3872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3882,7 +3883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3893,7 +3894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3904,7 +3905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3931,9 +3932,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3971,7 +3972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>3</v>
       </c>
@@ -3997,7 +3998,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>3</v>
       </c>
@@ -4023,7 +4024,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>6</v>
       </c>
@@ -4049,7 +4050,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>6</v>
       </c>
@@ -4075,7 +4076,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -4101,7 +4102,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4127,7 +4128,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -4153,7 +4154,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -4179,7 +4180,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -4205,7 +4206,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -4231,7 +4232,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>3</v>
       </c>
@@ -4257,7 +4258,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>3</v>
       </c>
@@ -4283,7 +4284,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>6</v>
       </c>
@@ -4309,7 +4310,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>6</v>
       </c>
@@ -4335,7 +4336,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>6</v>
       </c>
@@ -4361,7 +4362,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>3</v>
       </c>
@@ -4387,7 +4388,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>6</v>
       </c>
@@ -4413,7 +4414,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>6</v>
       </c>
@@ -4439,7 +4440,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>4</v>
       </c>
@@ -4465,7 +4466,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>3</v>
       </c>
@@ -4506,9 +4507,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4546,7 +4547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -4566,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -4586,7 +4587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -4606,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -4626,7 +4627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4646,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4666,7 +4667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -4686,7 +4687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4706,7 +4707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -4726,7 +4727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -4746,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -4766,7 +4767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4786,7 +4787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -4806,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4</v>
       </c>
@@ -4829,7 +4830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -4849,7 +4850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -4869,7 +4870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -4889,7 +4890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4</v>
       </c>
@@ -4909,7 +4910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
@@ -4929,7 +4930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -4949,7 +4950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -4969,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4</v>
       </c>
@@ -4989,7 +4990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -5012,7 +5013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -5032,7 +5033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -5052,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -5072,7 +5073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -5092,7 +5093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -5125,9 +5126,9 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5165,7 +5166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>6</v>
       </c>
@@ -5191,7 +5192,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>6</v>
       </c>
@@ -5217,7 +5218,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>4</v>
       </c>
@@ -5243,7 +5244,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -5269,7 +5270,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5295,7 +5296,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -5321,7 +5322,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -5347,7 +5348,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -5375,7 +5376,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -5401,7 +5402,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>3</v>
       </c>
@@ -5427,7 +5428,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -5453,7 +5454,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>4</v>
       </c>
@@ -5479,7 +5480,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>4</v>
       </c>
@@ -5505,7 +5506,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>3</v>
       </c>
@@ -5531,7 +5532,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>3</v>
       </c>
@@ -5557,7 +5558,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>6</v>
       </c>
@@ -5583,7 +5584,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>3</v>
       </c>
@@ -5609,7 +5610,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>3</v>
       </c>
@@ -5635,7 +5636,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>4</v>
       </c>
@@ -5661,7 +5662,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>5</v>
       </c>
@@ -5687,7 +5688,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>6</v>
       </c>
@@ -5713,7 +5714,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>6</v>
       </c>
@@ -5752,9 +5753,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5792,7 +5793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6</v>
       </c>
@@ -5812,7 +5813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -5832,7 +5833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5852,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -5872,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5892,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -5912,7 +5913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5935,7 +5936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -5955,7 +5956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -5975,7 +5976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -5995,7 +5996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -6015,7 +6016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -6035,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -6055,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -6075,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -6095,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -6115,7 +6116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
@@ -6135,7 +6136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -6155,7 +6156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -6175,7 +6176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -6195,7 +6196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -6215,7 +6216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -6248,9 +6249,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6288,7 +6289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>6</v>
       </c>
@@ -6314,7 +6315,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
-    <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -6340,7 +6341,7 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -6366,7 +6367,7 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -6392,7 +6393,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -6418,7 +6419,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -6444,7 +6445,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -6472,7 +6473,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -6498,7 +6499,7 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -6524,7 +6525,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -6550,7 +6551,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -6576,7 +6577,7 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>6</v>
       </c>
@@ -6602,7 +6603,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>6</v>
       </c>
@@ -6628,7 +6629,7 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -6668,9 +6669,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6708,7 +6709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -6728,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6748,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6768,7 +6769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6788,7 +6789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6808,7 +6809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -6831,7 +6832,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -6851,7 +6852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -6871,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -6891,7 +6892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -6911,7 +6912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -6931,7 +6932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -6951,7 +6952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -6971,7 +6972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4</v>
       </c>
@@ -6991,7 +6992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -7011,7 +7012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -7031,7 +7032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -7054,7 +7055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -7074,7 +7075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
@@ -7094,7 +7095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4</v>
       </c>
@@ -7114,7 +7115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -7134,7 +7135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -7154,7 +7155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -7177,7 +7178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -7197,7 +7198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -7217,7 +7218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -7237,7 +7238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -7257,7 +7258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -7277,7 +7278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -7297,7 +7298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -7327,13 +7328,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFB86B2-78C1-F243-A4DA-7A092CF926E6}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F25"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7371,640 +7372,1083 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>4</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>2</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7">
-        <v>2</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="7">
-        <v>2</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>2</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>102</v>
       </c>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6" t="s">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>3</v>
-      </c>
-      <c r="B8" s="7">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="7">
-        <v>2</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>3</v>
-      </c>
-      <c r="B9" s="7">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7">
-        <v>2</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7">
-        <v>2</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="7">
-        <v>2</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7">
-        <v>2</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>2</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>6</v>
-      </c>
-      <c r="B12" s="7">
-        <v>2</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="7">
-        <v>2</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>6</v>
-      </c>
-      <c r="B13" s="7">
-        <v>2</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="7">
-        <v>2</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>4</v>
-      </c>
-      <c r="B14" s="7">
-        <v>3</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7">
-        <v>2</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>4</v>
-      </c>
-      <c r="B15" s="7">
-        <v>3</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>2</v>
-      </c>
-      <c r="G15" s="7">
-        <v>1</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>3</v>
-      </c>
-      <c r="B16" s="7">
-        <v>3</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="7">
-        <v>2</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>3</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7">
-        <v>2</v>
-      </c>
-      <c r="G17" s="7">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>6</v>
-      </c>
-      <c r="B18" s="7">
-        <v>3</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="7">
-        <v>2</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>6</v>
-      </c>
-      <c r="B19" s="7">
-        <v>3</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="7">
-        <v>2</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>6</v>
-      </c>
-      <c r="B20" s="7">
-        <v>4</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="7">
-        <v>2</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
-        <v>3</v>
-      </c>
-      <c r="B21" s="7">
-        <v>4</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="7">
-        <v>2</v>
-      </c>
-      <c r="F21" s="7">
-        <v>1</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>3</v>
-      </c>
-      <c r="B22" s="7">
-        <v>4</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="7">
-        <v>2</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
-        <v>4</v>
-      </c>
-      <c r="B23" s="7">
-        <v>4</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="7">
-        <v>2</v>
-      </c>
-      <c r="F23" s="7">
-        <v>1</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
-        <v>6</v>
-      </c>
-      <c r="B24" s="7">
-        <v>4</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="7">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>2</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-    </row>
-    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
-        <v>6</v>
-      </c>
-      <c r="B25" s="7">
-        <v>4</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="7">
-        <v>2</v>
-      </c>
-      <c r="F25" s="7">
-        <v>1</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B04E015-5A8C-4AF5-A130-0C822EA53308}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8016,9 +8460,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8056,7 +8500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -8076,7 +8520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -8096,7 +8540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -8116,7 +8560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -8136,7 +8580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8156,7 +8600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8176,7 +8620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8196,7 +8640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -8216,7 +8660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -8239,7 +8683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -8259,7 +8703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -8279,7 +8723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -8299,7 +8743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -8319,7 +8763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -8339,7 +8783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -8359,7 +8803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -8379,7 +8823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -8399,7 +8843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -8419,7 +8863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -8439,7 +8883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -8462,7 +8906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -8482,7 +8926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -8516,9 +8960,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8556,7 +9000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5</v>
       </c>
@@ -8579,7 +9023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -8599,7 +9043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8619,7 +9063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -8639,7 +9083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -8659,7 +9103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8679,7 +9123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -8699,7 +9143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -8719,7 +9163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -8739,7 +9183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -8759,7 +9203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -8779,7 +9223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -8799,7 +9243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -8819,7 +9263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -8839,7 +9283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5</v>
       </c>
@@ -8859,7 +9303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -8879,7 +9323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -8899,7 +9343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -8919,7 +9363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -8939,7 +9383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -8959,7 +9403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -8979,7 +9423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -8999,7 +9443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -9019,7 +9463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -9042,7 +9486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -9062,7 +9506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -9082,7 +9526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5</v>
       </c>
@@ -9102,7 +9546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
@@ -9136,9 +9580,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9176,7 +9620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -9199,7 +9643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -9219,7 +9663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -9239,7 +9683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -9259,7 +9703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -9282,7 +9726,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -9302,7 +9746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -9322,7 +9766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -9342,7 +9786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -9362,7 +9806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -9382,7 +9826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -9402,7 +9846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -9422,7 +9866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -9442,7 +9886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -9462,7 +9906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -9485,7 +9929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -9505,7 +9949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -9525,7 +9969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -9562,9 +10006,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9602,7 +10046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -9622,7 +10066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -9645,7 +10089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -9665,7 +10109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -9685,7 +10129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -9705,7 +10149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9725,7 +10169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -9745,7 +10189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -9765,7 +10209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -9785,7 +10229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -9805,7 +10249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -9825,7 +10269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -9845,7 +10289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -9865,7 +10309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -9885,7 +10329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -9905,7 +10349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -9925,7 +10369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
@@ -9945,7 +10389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -9965,7 +10409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -9985,7 +10429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -10005,7 +10449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -10025,7 +10469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -10045,7 +10489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -10065,7 +10509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -10085,7 +10529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
@@ -10105,7 +10549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -10139,9 +10583,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10179,7 +10623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -10202,7 +10646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -10222,7 +10666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -10242,7 +10686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -10262,7 +10706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -10285,7 +10729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -10305,7 +10749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10328,7 +10772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -10348,7 +10792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -10368,7 +10812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -10388,7 +10832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -10414,7 +10858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -10434,7 +10878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
@@ -10454,7 +10898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -10474,7 +10918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -10494,7 +10938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6</v>
       </c>
@@ -10514,7 +10958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
@@ -10534,7 +10978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -10554,7 +10998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -10574,7 +11018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -10594,7 +11038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -10614,7 +11058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -10648,9 +11092,9 @@
       <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10688,7 +11132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
@@ -10708,7 +11152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -10728,7 +11172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -10748,7 +11192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -10768,7 +11212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -10791,7 +11235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -10811,7 +11255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -10831,7 +11275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -10851,7 +11295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -10871,7 +11315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -10891,7 +11335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -10911,7 +11355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -10934,7 +11378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -10954,7 +11398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -10974,7 +11418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -10994,7 +11438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -11017,7 +11461,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -11037,7 +11481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -11057,7 +11501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -11077,7 +11521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -11097,7 +11541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -11117,7 +11561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -11150,9 +11594,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11190,7 +11634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -11210,7 +11654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -11230,7 +11674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -11250,7 +11694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -11270,7 +11714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -11290,7 +11734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -11313,7 +11757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -11333,7 +11777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -11353,7 +11797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -11373,7 +11817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -11393,7 +11837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -11413,7 +11857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -11433,7 +11877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -11453,7 +11897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -11473,7 +11917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -11493,7 +11937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -11513,7 +11957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -11533,7 +11977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -11566,9 +12010,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11606,7 +12050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6</v>
       </c>
@@ -11626,7 +12070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -11646,7 +12090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11666,7 +12110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -11689,7 +12133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11709,7 +12153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -11729,7 +12173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -11749,7 +12193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -11769,7 +12213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -11789,7 +12233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -11809,7 +12253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -11829,7 +12273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -11849,7 +12293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -11869,7 +12313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -11892,7 +12336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -11912,7 +12356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -11932,7 +12376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -11952,7 +12396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -11972,7 +12416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -11995,7 +12439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -12015,7 +12459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -12035,7 +12479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -12055,7 +12499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -12075,7 +12519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -12095,7 +12539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -12115,7 +12559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>

--- a/data/Austerlitz_seizoen_2019-2020.xlsx
+++ b/data/Austerlitz_seizoen_2019-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bas\OneDrive\pers_dev\dartsense\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="114_{2EAC6C1F-7181-438E-8EC4-41166E4CA87A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4DE3EF9A-3127-431E-AC35-2F072E1939E8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845924F5-B9CB-4487-8A02-87F9D4A758D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" firstSheet="6" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" tabRatio="766" firstSheet="6" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-08-30" sheetId="30" r:id="rId1"/>
@@ -32,9 +32,10 @@
     <sheet name="2020-01-03" sheetId="47" r:id="rId17"/>
     <sheet name="2020-01-10" sheetId="48" r:id="rId18"/>
     <sheet name="2020-01-17" sheetId="49" r:id="rId19"/>
+    <sheet name="2020-01-24" sheetId="50" r:id="rId20"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="38">
   <si>
     <t>Baan</t>
   </si>
@@ -7873,8 +7874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B04E015-5A8C-4AF5-A130-0C822EA53308}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8952,6 +8953,595 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B243F06B-4C06-4C79-BFA8-D4134EF87D74}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B29D6B-4022-4DBF-BE05-27E7DF187259}">
   <dimension ref="A1:L29"/>

--- a/data/Austerlitz_seizoen_2019-2020.xlsx
+++ b/data/Austerlitz_seizoen_2019-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bas/src/dartsense/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845924F5-B9CB-4487-8A02-87F9D4A758D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D00636-5BAD-0B42-B1C3-E9EACF761917}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" tabRatio="766" firstSheet="6" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19840" tabRatio="766" firstSheet="6" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-08-30" sheetId="30" r:id="rId1"/>
@@ -33,9 +33,10 @@
     <sheet name="2020-01-10" sheetId="48" r:id="rId18"/>
     <sheet name="2020-01-17" sheetId="49" r:id="rId19"/>
     <sheet name="2020-01-24" sheetId="50" r:id="rId20"/>
+    <sheet name="2020-01-31" sheetId="51" r:id="rId21"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="38">
   <si>
     <t>Baan</t>
   </si>
@@ -2549,9 +2550,9 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2589,7 +2590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2609,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -2629,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2649,7 +2650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2669,7 +2670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2689,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2709,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2729,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2749,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2769,7 +2770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2789,7 +2790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>4</v>
       </c>
@@ -2809,7 +2810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2829,7 +2830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2852,7 +2853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2872,7 +2873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2892,7 +2893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2912,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>4</v>
       </c>
@@ -2932,7 +2933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -2975,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -2995,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -3018,7 +3019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -3038,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>4</v>
       </c>
@@ -3058,7 +3059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -3078,7 +3079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>6</v>
       </c>
@@ -3098,7 +3099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3136,9 +3137,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3176,7 +3177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>6</v>
       </c>
@@ -3196,7 +3197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -3216,7 +3217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>6</v>
       </c>
@@ -3236,7 +3237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -3256,7 +3257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -3276,7 +3277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -3296,7 +3297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -3316,7 +3317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -3336,7 +3337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -3356,7 +3357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -3376,7 +3377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3396,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>3</v>
       </c>
@@ -3416,7 +3417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>6</v>
       </c>
@@ -3436,7 +3437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>5</v>
       </c>
@@ -3456,7 +3457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>6</v>
       </c>
@@ -3476,7 +3477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>6</v>
       </c>
@@ -3496,7 +3497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>6</v>
       </c>
@@ -3516,7 +3517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -3536,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -3556,7 +3557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>5</v>
       </c>
@@ -3576,7 +3577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>6</v>
       </c>
@@ -3596,7 +3597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -3616,7 +3617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>4</v>
       </c>
@@ -3636,7 +3637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>5</v>
       </c>
@@ -3656,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>5</v>
       </c>
@@ -3676,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -3710,9 +3711,9 @@
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -3732,7 +3733,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -3743,7 +3744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -3754,7 +3755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -3768,7 +3769,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -3779,7 +3780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3793,7 +3794,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -3807,7 +3808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -3818,7 +3819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3829,7 +3830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3840,7 +3841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3851,7 +3852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3862,7 +3863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -3873,7 +3874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3884,7 +3885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3895,7 +3896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3906,7 +3907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3933,9 +3934,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3973,7 +3974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>3</v>
       </c>
@@ -3999,7 +4000,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>3</v>
       </c>
@@ -4025,7 +4026,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>6</v>
       </c>
@@ -4051,7 +4052,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>6</v>
       </c>
@@ -4077,7 +4078,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -4103,7 +4104,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4129,7 +4130,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -4155,7 +4156,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -4181,7 +4182,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -4207,7 +4208,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -4233,7 +4234,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>3</v>
       </c>
@@ -4259,7 +4260,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>3</v>
       </c>
@@ -4285,7 +4286,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>6</v>
       </c>
@@ -4311,7 +4312,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>6</v>
       </c>
@@ -4337,7 +4338,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>6</v>
       </c>
@@ -4363,7 +4364,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>3</v>
       </c>
@@ -4389,7 +4390,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>6</v>
       </c>
@@ -4415,7 +4416,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>6</v>
       </c>
@@ -4441,7 +4442,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>4</v>
       </c>
@@ -4467,7 +4468,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>3</v>
       </c>
@@ -4508,9 +4509,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4548,7 +4549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -4568,7 +4569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>4</v>
       </c>
@@ -4588,7 +4589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -4608,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -4628,7 +4629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4648,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4668,7 +4669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3</v>
       </c>
@@ -4688,7 +4689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4708,7 +4709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -4728,7 +4729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -4748,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>4</v>
       </c>
@@ -4768,7 +4769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4788,7 +4789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -4808,7 +4809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>4</v>
       </c>
@@ -4831,7 +4832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -4851,7 +4852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -4871,7 +4872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>4</v>
       </c>
@@ -4891,7 +4892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>4</v>
       </c>
@@ -4911,7 +4912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>4</v>
       </c>
@@ -4931,7 +4932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -4951,7 +4952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -4971,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>4</v>
       </c>
@@ -4991,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -5014,7 +5015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>4</v>
       </c>
@@ -5034,7 +5035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -5054,7 +5055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -5074,7 +5075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -5094,7 +5095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -5127,9 +5128,9 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5167,7 +5168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>6</v>
       </c>
@@ -5193,7 +5194,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>6</v>
       </c>
@@ -5219,7 +5220,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>4</v>
       </c>
@@ -5245,7 +5246,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -5271,7 +5272,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5297,7 +5298,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -5323,7 +5324,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -5349,7 +5350,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -5377,7 +5378,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -5403,7 +5404,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>3</v>
       </c>
@@ -5429,7 +5430,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -5455,7 +5456,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>4</v>
       </c>
@@ -5481,7 +5482,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>4</v>
       </c>
@@ -5507,7 +5508,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>3</v>
       </c>
@@ -5533,7 +5534,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>3</v>
       </c>
@@ -5559,7 +5560,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>6</v>
       </c>
@@ -5585,7 +5586,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>3</v>
       </c>
@@ -5611,7 +5612,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>3</v>
       </c>
@@ -5637,7 +5638,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>4</v>
       </c>
@@ -5663,7 +5664,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>5</v>
       </c>
@@ -5689,7 +5690,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>6</v>
       </c>
@@ -5715,7 +5716,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>6</v>
       </c>
@@ -5754,9 +5755,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5794,7 +5795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>6</v>
       </c>
@@ -5814,7 +5815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -5834,7 +5835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5854,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -5874,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5894,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -5914,7 +5915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5937,7 +5938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3</v>
       </c>
@@ -5957,7 +5958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -5977,7 +5978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -5997,7 +5998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6</v>
       </c>
@@ -6017,7 +6018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -6037,7 +6038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -6057,7 +6058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -6077,7 +6078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -6097,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -6117,7 +6118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>5</v>
       </c>
@@ -6137,7 +6138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -6157,7 +6158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>5</v>
       </c>
@@ -6177,7 +6178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -6197,7 +6198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -6217,7 +6218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -6250,9 +6251,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6290,7 +6291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>6</v>
       </c>
@@ -6316,7 +6317,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -6342,7 +6343,7 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -6368,7 +6369,7 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -6394,7 +6395,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -6420,7 +6421,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -6446,7 +6447,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -6474,7 +6475,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -6500,7 +6501,7 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -6526,7 +6527,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -6552,7 +6553,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -6578,7 +6579,7 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>6</v>
       </c>
@@ -6604,7 +6605,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>6</v>
       </c>
@@ -6630,7 +6631,7 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -6670,9 +6671,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6710,7 +6711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2</v>
       </c>
@@ -6730,7 +6731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6750,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6770,7 +6771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6790,7 +6791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6810,7 +6811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -6833,7 +6834,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2</v>
       </c>
@@ -6853,7 +6854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>4</v>
       </c>
@@ -6873,7 +6874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -6893,7 +6894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -6913,7 +6914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2</v>
       </c>
@@ -6933,7 +6934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2</v>
       </c>
@@ -6953,7 +6954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -6973,7 +6974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>4</v>
       </c>
@@ -6993,7 +6994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -7013,7 +7014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>4</v>
       </c>
@@ -7033,7 +7034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2</v>
       </c>
@@ -7056,7 +7057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
@@ -7076,7 +7077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>4</v>
       </c>
@@ -7096,7 +7097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>4</v>
       </c>
@@ -7116,7 +7117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -7136,7 +7137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -7156,7 +7157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>3</v>
       </c>
@@ -7179,7 +7180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>4</v>
       </c>
@@ -7199,7 +7200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -7219,7 +7220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>2</v>
       </c>
@@ -7239,7 +7240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>2</v>
       </c>
@@ -7259,7 +7260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>4</v>
       </c>
@@ -7279,7 +7280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>2</v>
       </c>
@@ -7299,7 +7300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>4</v>
       </c>
@@ -7333,9 +7334,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7373,7 +7374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>4</v>
       </c>
@@ -7393,7 +7394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7413,7 +7414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7433,7 +7434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7453,7 +7454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -7476,7 +7477,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7496,7 +7497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3</v>
       </c>
@@ -7516,7 +7517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3</v>
       </c>
@@ -7536,7 +7537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>4</v>
       </c>
@@ -7556,7 +7557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>4</v>
       </c>
@@ -7576,7 +7577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6</v>
       </c>
@@ -7596,7 +7597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -7616,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>4</v>
       </c>
@@ -7636,7 +7637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>4</v>
       </c>
@@ -7659,7 +7660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -7679,7 +7680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -7705,7 +7706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -7725,7 +7726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -7745,7 +7746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -7765,7 +7766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -7785,7 +7786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -7805,7 +7806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>4</v>
       </c>
@@ -7825,7 +7826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -7845,7 +7846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -7878,9 +7879,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7918,7 +7919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -7938,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7961,7 +7962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4</v>
       </c>
@@ -7981,7 +7982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -8001,7 +8002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8021,7 +8022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8041,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8061,7 +8062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -8084,7 +8085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -8104,7 +8105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -8124,7 +8125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>5</v>
       </c>
@@ -8144,7 +8145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>5</v>
       </c>
@@ -8164,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -8184,7 +8185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -8204,7 +8205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -8224,7 +8225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5</v>
       </c>
@@ -8244,7 +8245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>5</v>
       </c>
@@ -8264,7 +8265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -8284,7 +8285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -8304,7 +8305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>4</v>
       </c>
@@ -8324,7 +8325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -8344,7 +8345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -8364,7 +8365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>3</v>
       </c>
@@ -8387,7 +8388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>4</v>
       </c>
@@ -8407,7 +8408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -8427,7 +8428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>
@@ -8461,9 +8462,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8501,7 +8502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -8521,7 +8522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -8541,7 +8542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4</v>
       </c>
@@ -8561,7 +8562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -8581,7 +8582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8601,7 +8602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8621,7 +8622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8641,7 +8642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>4</v>
       </c>
@@ -8661,7 +8662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -8684,7 +8685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -8704,7 +8705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -8724,7 +8725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -8744,7 +8745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>4</v>
       </c>
@@ -8764,7 +8765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -8784,7 +8785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -8804,7 +8805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5</v>
       </c>
@@ -8824,7 +8825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>3</v>
       </c>
@@ -8844,7 +8845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -8864,7 +8865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -8884,7 +8885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -8907,7 +8908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -8927,7 +8928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -8957,13 +8958,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B243F06B-4C06-4C79-BFA8-D4134EF87D74}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9001,7 +9002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>5</v>
       </c>
@@ -9024,7 +9025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -9044,7 +9045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9064,7 +9065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -9084,7 +9085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9104,7 +9105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9124,7 +9125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -9144,7 +9145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -9164,7 +9165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -9187,7 +9188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>5</v>
       </c>
@@ -9207,7 +9208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6</v>
       </c>
@@ -9227,7 +9228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -9247,7 +9248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -9267,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -9290,7 +9291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -9310,7 +9311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -9330,7 +9331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>5</v>
       </c>
@@ -9350,7 +9351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -9370,7 +9371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -9393,7 +9394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -9413,7 +9414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>5</v>
       </c>
@@ -9433,7 +9434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -9453,7 +9454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>3</v>
       </c>
@@ -9473,7 +9474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>3</v>
       </c>
@@ -9493,7 +9494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>6</v>
       </c>
@@ -9513,7 +9514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>
@@ -9539,6 +9540,641 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6263F9-D291-9648-BEBE-919A5FEFE814}">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>3</v>
+      </c>
+      <c r="B13" s="7">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>3</v>
+      </c>
+      <c r="B14" s="7">
+        <v>3</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>3</v>
+      </c>
+      <c r="B15" s="7">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>6</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>6</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>3</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>6</v>
+      </c>
+      <c r="B19" s="7">
+        <v>4</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>3</v>
+      </c>
+      <c r="B20" s="7">
+        <v>4</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>5</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>6</v>
+      </c>
+      <c r="B22" s="7">
+        <v>4</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>2</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>5</v>
+      </c>
+      <c r="B23" s="7">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7">
+        <v>2</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9550,9 +10186,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9590,7 +10226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>5</v>
       </c>
@@ -9613,7 +10249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -9633,7 +10269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9653,7 +10289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -9673,7 +10309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -9693,7 +10329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9713,7 +10349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -9733,7 +10369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -9753,7 +10389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5</v>
       </c>
@@ -9773,7 +10409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>5</v>
       </c>
@@ -9793,7 +10429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -9813,7 +10449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -9833,7 +10469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -9853,7 +10489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -9873,7 +10509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>5</v>
       </c>
@@ -9893,7 +10529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5</v>
       </c>
@@ -9913,7 +10549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>3</v>
       </c>
@@ -9933,7 +10569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -9953,7 +10589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -9973,7 +10609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>5</v>
       </c>
@@ -9993,7 +10629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -10013,7 +10649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -10033,7 +10669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -10053,7 +10689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -10076,7 +10712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -10096,7 +10732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -10116,7 +10752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>5</v>
       </c>
@@ -10136,7 +10772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>5</v>
       </c>
@@ -10170,9 +10806,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10210,7 +10846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -10233,7 +10869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -10253,7 +10889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -10273,7 +10909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -10293,7 +10929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -10316,7 +10952,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -10336,7 +10972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10356,7 +10992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -10376,7 +11012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -10396,7 +11032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -10416,7 +11052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6</v>
       </c>
@@ -10436,7 +11072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -10456,7 +11092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -10476,7 +11112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -10496,7 +11132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -10519,7 +11155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -10539,7 +11175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -10559,7 +11195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -10596,9 +11232,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10636,7 +11272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -10656,7 +11292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -10679,7 +11315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -10699,7 +11335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -10719,7 +11355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -10739,7 +11375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10759,7 +11395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10779,7 +11415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -10799,7 +11435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5</v>
       </c>
@@ -10819,7 +11455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -10839,7 +11475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -10859,7 +11495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -10879,7 +11515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -10899,7 +11535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -10919,7 +11555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -10939,7 +11575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -10959,7 +11595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>5</v>
       </c>
@@ -10979,7 +11615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -10999,7 +11635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -11019,7 +11655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>5</v>
       </c>
@@ -11039,7 +11675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>5</v>
       </c>
@@ -11059,7 +11695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -11079,7 +11715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>3</v>
       </c>
@@ -11099,7 +11735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -11119,7 +11755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>6</v>
       </c>
@@ -11139,7 +11775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>
@@ -11173,9 +11809,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11213,7 +11849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -11236,7 +11872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -11256,7 +11892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -11276,7 +11912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -11296,7 +11932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -11319,7 +11955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -11339,7 +11975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -11362,7 +11998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -11382,7 +12018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -11402,7 +12038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>5</v>
       </c>
@@ -11422,7 +12058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6</v>
       </c>
@@ -11448,7 +12084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -11468,7 +12104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>5</v>
       </c>
@@ -11488,7 +12124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -11508,7 +12144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -11528,7 +12164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>6</v>
       </c>
@@ -11548,7 +12184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>5</v>
       </c>
@@ -11568,7 +12204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -11588,7 +12224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -11608,7 +12244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -11628,7 +12264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>5</v>
       </c>
@@ -11648,7 +12284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -11682,9 +12318,9 @@
       <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11722,7 +12358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>4</v>
       </c>
@@ -11742,7 +12378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>4</v>
       </c>
@@ -11762,7 +12398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -11782,7 +12418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -11802,7 +12438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -11825,7 +12461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -11845,7 +12481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3</v>
       </c>
@@ -11865,7 +12501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -11885,7 +12521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -11905,7 +12541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -11925,7 +12561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -11945,7 +12581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -11968,7 +12604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -11988,7 +12624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -12008,7 +12644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -12028,7 +12664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -12051,7 +12687,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -12071,7 +12707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -12091,7 +12727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>3</v>
       </c>
@@ -12111,7 +12747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -12131,7 +12767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -12151,7 +12787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>6</v>
       </c>
@@ -12184,9 +12820,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12224,7 +12860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -12244,7 +12880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -12264,7 +12900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -12284,7 +12920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -12304,7 +12940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -12324,7 +12960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -12347,7 +12983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -12367,7 +13003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -12387,7 +13023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -12407,7 +13043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -12427,7 +13063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6</v>
       </c>
@@ -12447,7 +13083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -12467,7 +13103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -12487,7 +13123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -12507,7 +13143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -12527,7 +13163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -12547,7 +13183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -12567,7 +13203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>5</v>
       </c>
@@ -12600,9 +13236,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12640,7 +13276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>6</v>
       </c>
@@ -12660,7 +13296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -12680,7 +13316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12700,7 +13336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -12723,7 +13359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12743,7 +13379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -12763,7 +13399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -12783,7 +13419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -12803,7 +13439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -12823,7 +13459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -12843,7 +13479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>5</v>
       </c>
@@ -12863,7 +13499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -12883,7 +13519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -12903,7 +13539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -12926,7 +13562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -12946,7 +13582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -12966,7 +13602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -12986,7 +13622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -13006,7 +13642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>3</v>
       </c>
@@ -13029,7 +13665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>5</v>
       </c>
@@ -13049,7 +13685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -13069,7 +13705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>6</v>
       </c>
@@ -13089,7 +13725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -13109,7 +13745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>3</v>
       </c>
@@ -13129,7 +13765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>5</v>
       </c>
@@ -13149,7 +13785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>
